--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeelongsiah/Desktop/School/NTU/SC2001/Dijkstra's Alg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5B3BC-2815-0C4D-A933-D141661F7D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E3FD9-D41C-2146-B160-A10C75077835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8A83C292-6E76-F249-AC67-58BE18C7F3DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{8A83C292-6E76-F249-AC67-58BE18C7F3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +36,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
@@ -48,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +85,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -93,6 +122,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,308 +192,13 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>matrix</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>3.6099999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0839999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3779999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2290000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6620000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.8949999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3564E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8072000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3436999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1766000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7482000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4187999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.2680999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4558000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.2525999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.5657999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.8711999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.112737</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-B7E5-4944-B508-63A153A005E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>list</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>6.6E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6570000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3569999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1365E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8161E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7177E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8198000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0202999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4984E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9757999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9857000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.121938</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.148202</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16872899999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19997500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23547399999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.26831199999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.30074800000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-B7E5-4944-B508-63A153A005E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>matrix</c:v>
           </c:tx>
@@ -476,9 +211,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -555,63 +288,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.6099999999999999E-4</c:v>
+                  <c:v>1.9599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0839999999999999E-3</c:v>
+                  <c:v>7.2400000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3779999999999999E-3</c:v>
+                  <c:v>1.5640000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2290000000000001E-3</c:v>
+                  <c:v>2.8549999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6620000000000004E-3</c:v>
+                  <c:v>4.529E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8949999999999993E-3</c:v>
+                  <c:v>6.7409999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3564E-2</c:v>
+                  <c:v>9.4450000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8072000000000001E-2</c:v>
+                  <c:v>1.2756E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3436999999999999E-2</c:v>
+                  <c:v>1.6594999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1766000000000003E-2</c:v>
+                  <c:v>2.1023E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7482000000000001E-2</c:v>
+                  <c:v>2.606E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4187999999999998E-2</c:v>
+                  <c:v>3.1518999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2680999999999999E-2</c:v>
+                  <c:v>3.7728999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4558000000000004E-2</c:v>
+                  <c:v>4.4585E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.2525999999999993E-2</c:v>
+                  <c:v>5.253E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5657999999999998E-2</c:v>
+                  <c:v>5.9888999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.8711999999999994E-2</c:v>
+                  <c:v>6.8453E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.112737</c:v>
+                  <c:v>7.7466999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6739999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6918000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-B7E5-4944-B508-63A153A005E9}"/>
@@ -620,22 +358,11 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>list</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -712,63 +439,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.6E-4</c:v>
+                  <c:v>4.4299999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6570000000000001E-3</c:v>
+                  <c:v>1.732E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3569999999999998E-3</c:v>
+                  <c:v>4.0419999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1365E-2</c:v>
+                  <c:v>7.2940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8161E-2</c:v>
+                  <c:v>1.1448E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7177E-2</c:v>
+                  <c:v>1.7181999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8198000000000003E-2</c:v>
+                  <c:v>2.3873999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0202999999999998E-2</c:v>
+                  <c:v>3.1435999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4984E-2</c:v>
+                  <c:v>4.0399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9757999999999996E-2</c:v>
+                  <c:v>5.0289E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9857000000000001E-2</c:v>
+                  <c:v>6.2400999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.121938</c:v>
+                  <c:v>7.5864000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.148202</c:v>
+                  <c:v>9.0345999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16872899999999999</c:v>
+                  <c:v>0.106087</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19997500000000001</c:v>
+                  <c:v>0.124031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23547399999999999</c:v>
+                  <c:v>0.14067499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26831199999999999</c:v>
+                  <c:v>0.16055700000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30074800000000002</c:v>
+                  <c:v>0.18090600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20285300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22547800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-B7E5-4944-B508-63A153A005E9}"/>
@@ -783,10 +515,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="192770208"/>
         <c:axId val="192766768"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="192770208"/>
         <c:scaling>
@@ -1021,8 +753,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1031,17 +764,15 @@
             <c:v>matrix</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -1118,36 +849,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.01E-4</c:v>
+                  <c:v>2.0100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.091E-3</c:v>
+                  <c:v>7.1500000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3990000000000001E-3</c:v>
+                  <c:v>1.598E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6550000000000003E-3</c:v>
+                  <c:v>3.026E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6839999999999998E-3</c:v>
+                  <c:v>4.6319999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9050000000000006E-3</c:v>
+                  <c:v>6.7149999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3689E-2</c:v>
+                  <c:v>9.476E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8213E-2</c:v>
+                  <c:v>1.2867999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4132000000000001E-2</c:v>
+                  <c:v>1.6497000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1176E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6353000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.193E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8573999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4717E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2610999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9995E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8760000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7804999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7846999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7747000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B164-4742-B3D1-ABD561E9F3ED}"/>
@@ -1161,17 +924,15 @@
             <c:v>list</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -1248,36 +1009,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.87E-4</c:v>
+                  <c:v>4.4299999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8089999999999999E-3</c:v>
+                  <c:v>1.743E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.574E-3</c:v>
+                  <c:v>4.0070000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2213999999999999E-2</c:v>
+                  <c:v>7.3130000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9363999999999999E-2</c:v>
+                  <c:v>1.1846000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9406999999999999E-2</c:v>
+                  <c:v>1.7186E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0733999999999999E-2</c:v>
+                  <c:v>2.3859000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3073000000000002E-2</c:v>
+                  <c:v>3.1619000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7493999999999998E-2</c:v>
+                  <c:v>4.0736000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0285999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2633999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5935000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0448000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.106623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.123915</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14158100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16085199999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18218000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20243800000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23206099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B164-4742-B3D1-ABD561E9F3ED}"/>
@@ -1292,10 +1085,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="192770208"/>
         <c:axId val="192766768"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="192770208"/>
         <c:scaling>
@@ -1558,8 +1351,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1568,17 +1362,15 @@
             <c:v>matrix</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -1655,36 +1447,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.0299999999999999E-4</c:v>
+                  <c:v>2.0100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1050000000000001E-3</c:v>
+                  <c:v>7.1400000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4130000000000002E-3</c:v>
+                  <c:v>1.58E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3E-3</c:v>
+                  <c:v>2.8240000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7590000000000003E-3</c:v>
+                  <c:v>4.5640000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9319999999999999E-3</c:v>
+                  <c:v>6.816E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4402999999999999E-2</c:v>
+                  <c:v>9.5919999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9446000000000001E-2</c:v>
+                  <c:v>1.2895E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3879999999999998E-2</c:v>
+                  <c:v>1.6704E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1285999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6273999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.209E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8275999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2641E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0755000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9281999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8802999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8248999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7987000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E50-D045-BD81-3F21B4EDAE95}"/>
@@ -1698,17 +1522,15 @@
             <c:v>list</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -1785,36 +1607,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.4000000000000005E-4</c:v>
+                  <c:v>4.3300000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6350000000000002E-3</c:v>
+                  <c:v>1.7099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1710000000000003E-3</c:v>
+                  <c:v>3.947E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1272000000000001E-2</c:v>
+                  <c:v>7.1190000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7842E-2</c:v>
+                  <c:v>1.1204E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6939999999999999E-2</c:v>
+                  <c:v>1.6899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7684000000000002E-2</c:v>
+                  <c:v>2.3547999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9579999999999999E-2</c:v>
+                  <c:v>3.1153E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3431000000000001E-2</c:v>
+                  <c:v>3.9816999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9605999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4836E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9688000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.104979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.121682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14008200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.159331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17934700000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.217394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E50-D045-BD81-3F21B4EDAE95}"/>
@@ -1829,10 +1683,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="192770208"/>
         <c:axId val="192766768"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="192770208"/>
         <c:scaling>
@@ -2095,8 +1949,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2105,17 +1960,15 @@
             <c:v>matrix</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -2192,39 +2045,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.1599999999999997E-4</c:v>
+                  <c:v>2.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.114E-3</c:v>
+                  <c:v>7.2199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4390000000000002E-3</c:v>
+                  <c:v>1.604E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3090000000000003E-3</c:v>
+                  <c:v>2.8730000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7759999999999999E-3</c:v>
+                  <c:v>4.5700000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9439999999999997E-3</c:v>
+                  <c:v>6.7710000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4415000000000001E-2</c:v>
+                  <c:v>9.5219999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1489000000000001E-2</c:v>
+                  <c:v>1.2862E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4669E-2</c:v>
+                  <c:v>1.6903000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0276999999999998E-2</c:v>
+                  <c:v>2.1256000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6556E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2155999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8317999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5419000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.339E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0804999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9231000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8828999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8711999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8541000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-688D-3942-A23A-1046A3A29120}"/>
@@ -2238,17 +2120,15 @@
             <c:v>list</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -2325,39 +2205,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.6300000000000002E-4</c:v>
+                  <c:v>4.1599999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3370000000000001E-3</c:v>
+                  <c:v>1.6479999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5209999999999999E-3</c:v>
+                  <c:v>3.8049999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0251E-2</c:v>
+                  <c:v>6.8910000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6038E-2</c:v>
+                  <c:v>1.0839E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4416E-2</c:v>
+                  <c:v>1.6329E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.39E-2</c:v>
+                  <c:v>2.2738999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6509000000000002E-2</c:v>
+                  <c:v>3.0183000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7817E-2</c:v>
+                  <c:v>3.8522000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2952000000000003E-2</c:v>
+                  <c:v>4.8134000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0047999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3214000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7094000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.102447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.118881</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.155558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.196016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19983300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-688D-3942-A23A-1046A3A29120}"/>
@@ -2372,10 +2281,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="192770208"/>
         <c:axId val="192766768"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="192770208"/>
         <c:scaling>
@@ -2638,8 +2547,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2648,17 +2558,15 @@
             <c:v>matrix</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -2734,10 +2642,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.27E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.601E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8579999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6010000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8539999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5289999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3024000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6816999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1422E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6702E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2044999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8492999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5347999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3176000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1081000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9757E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9334000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8758000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9318000000000004E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-063D-B947-80BB-534E9215D89D}"/>
@@ -2751,17 +2718,15 @@
             <c:v>list</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$22</c:f>
@@ -2837,10 +2802,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.68E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4710000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1980000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8189999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4883E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0697E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7591999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5358000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4344000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5439000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7366999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0458000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4485E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.110291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12785099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.144458</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16510900000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.183532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17300499999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-063D-B947-80BB-534E9215D89D}"/>
@@ -2855,10 +2879,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="192770208"/>
         <c:axId val="192766768"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="192770208"/>
         <c:scaling>
@@ -3049,6 +3073,1830 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100% matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.2400000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5640000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8549999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.529E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7409999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4450000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2756E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6594999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1023E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.606E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1518999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7728999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4585E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.253E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9888999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8453E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7466999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6739999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6918000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100% list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.732E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0419999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2940000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1448E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7181999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3873999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1435999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0289E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2400999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5864000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0345999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.106087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.124031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14067499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16055700000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18090600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20285300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22547800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>80% matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.1500000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.598E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.026E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6319999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7149999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.476E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2867999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6497000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1176E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6353000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.193E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8573999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4717E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2610999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9995E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8760000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7804999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7846999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7747000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>80% list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.743E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3130000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1846000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7186E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3859000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1619000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0736000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0285999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2633999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5935000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0448000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.106623</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.123915</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14158100000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16085199999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18218000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20243800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23206099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>60% matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.1400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8240000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5640000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.816E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5919999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2895E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6704E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1285999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6273999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.209E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8275999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2641E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0755000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9281999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8802999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8248999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7987000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>60% list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.7099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.947E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1190000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1204E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3547999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1153E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9816999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9605999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4836E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9688000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.104979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.121682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14008200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.159331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17934700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.217394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.2199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.604E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8730000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5700000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7710000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5219999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2862E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6903000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1256000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6556E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2155999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8317999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5419000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.339E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0804999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9231000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8828999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8711999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8541000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.6479999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8049999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8910000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0839E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2738999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0183000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8522000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8134000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0047999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3214000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7094000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.102447</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.118881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.155558</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.196016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19983300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.27E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.601E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8579999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6010000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8539999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5289999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3024000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6816999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1422E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6702E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2044999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8492999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5347999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3176000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1081000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9757E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9334000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8758000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9318000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.4710000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1980000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8189999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4883E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0697E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7591999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5358000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4344000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5439000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7366999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0458000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4485E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.110291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12785099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.144458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16510900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.183532</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17300499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D414-B94F-ABB9-27A7F1EED86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="201779264"/>
+        <c:axId val="795518752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="201779264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795518752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795518752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201779264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3209,6 +5057,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4920,6 +6808,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5458,6 +7849,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769220</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>577155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2081389</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>341018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902AC440-6F7F-227C-9D2C-CBA5CD169BEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5763,15 +8190,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C20B9EC-4AA2-AE46-8826-2B4D3F091796}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="50" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="47" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -5782,7 +8209,11 @@
     <col min="9" max="9" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="15" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5846,28 +8277,34 @@
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>3.6099999999999999E-4</v>
+        <v>1.9599999999999999E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>6.6E-4</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="D3" s="1">
-        <v>3.01E-4</v>
+        <v>2.0100000000000001E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>6.87E-4</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>3.0299999999999999E-4</v>
+        <v>2.0100000000000001E-4</v>
       </c>
       <c r="G3" s="1">
-        <v>6.4000000000000005E-4</v>
+        <v>4.3300000000000001E-4</v>
       </c>
       <c r="H3" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I3" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
-      <c r="I3" s="1">
-        <v>5.6300000000000002E-4</v>
+      <c r="J3" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.68E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5876,28 +8313,34 @@
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0839999999999999E-3</v>
+        <v>7.2400000000000003E-4</v>
       </c>
       <c r="C4" s="1">
-        <v>2.6570000000000001E-3</v>
+        <v>1.732E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>1.091E-3</v>
+        <v>7.1500000000000003E-4</v>
       </c>
       <c r="E4" s="1">
-        <v>2.8089999999999999E-3</v>
+        <v>1.743E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>1.1050000000000001E-3</v>
+        <v>7.1400000000000001E-4</v>
       </c>
       <c r="G4" s="1">
-        <v>2.6350000000000002E-3</v>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>1.114E-3</v>
+        <v>7.2199999999999999E-4</v>
       </c>
       <c r="I4" s="1">
-        <v>2.3370000000000001E-3</v>
+        <v>1.6479999999999999E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.27E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.4710000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5906,28 +8349,34 @@
         <v>600</v>
       </c>
       <c r="B5" s="1">
-        <v>2.3779999999999999E-3</v>
+        <v>1.5640000000000001E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>6.3569999999999998E-3</v>
+        <v>4.0419999999999996E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>2.3990000000000001E-3</v>
+        <v>1.598E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>6.574E-3</v>
+        <v>4.0070000000000001E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>2.4130000000000002E-3</v>
+        <v>1.58E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>6.1710000000000003E-3</v>
+        <v>3.947E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>2.4390000000000002E-3</v>
+        <v>1.604E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>5.5209999999999999E-3</v>
+        <v>3.8049999999999998E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.601E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.4139999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5936,28 +8385,34 @@
         <v>800</v>
       </c>
       <c r="B6" s="1">
-        <v>4.2290000000000001E-3</v>
+        <v>2.8549999999999999E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>1.1365E-2</v>
+        <v>7.2940000000000001E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>4.6550000000000003E-3</v>
+        <v>3.026E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>1.2213999999999999E-2</v>
+        <v>7.3130000000000001E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>4.3E-3</v>
+        <v>2.8240000000000001E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>1.1272000000000001E-2</v>
+        <v>7.1190000000000003E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>4.3090000000000003E-3</v>
+        <v>2.8730000000000001E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0251E-2</v>
+        <v>6.8910000000000004E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.8579999999999999E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.1980000000000004E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5966,28 +8421,34 @@
         <v>1000</v>
       </c>
       <c r="B7" s="1">
-        <v>6.6620000000000004E-3</v>
+        <v>4.529E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.8161E-2</v>
+        <v>1.1448E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>6.6839999999999998E-3</v>
+        <v>4.6319999999999998E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>1.9363999999999999E-2</v>
+        <v>1.1846000000000001E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>6.7590000000000003E-3</v>
+        <v>4.5640000000000003E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>1.7842E-2</v>
+        <v>1.1204E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>6.7759999999999999E-3</v>
+        <v>4.5700000000000003E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>1.6038E-2</v>
+        <v>1.0839E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.6010000000000001E-3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.8189999999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5996,28 +8457,34 @@
         <v>1200</v>
       </c>
       <c r="B8" s="1">
-        <v>9.8949999999999993E-3</v>
+        <v>6.7409999999999996E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>2.7177E-2</v>
+        <v>1.7181999999999999E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>9.9050000000000006E-3</v>
+        <v>6.7149999999999996E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>2.9406999999999999E-2</v>
+        <v>1.7186E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>9.9319999999999999E-3</v>
+        <v>6.816E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>2.6939999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>9.9439999999999997E-3</v>
+        <v>6.7710000000000001E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>2.4416E-2</v>
+        <v>1.6329E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6.8539999999999998E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.4883E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6026,28 +8493,34 @@
         <v>1400</v>
       </c>
       <c r="B9" s="1">
-        <v>1.3564E-2</v>
+        <v>9.4450000000000003E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>3.8198000000000003E-2</v>
+        <v>2.3873999999999999E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>1.3689E-2</v>
+        <v>9.476E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>4.0733999999999999E-2</v>
+        <v>2.3859000000000002E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>1.4402999999999999E-2</v>
+        <v>9.5919999999999998E-3</v>
       </c>
       <c r="G9" s="1">
-        <v>3.7684000000000002E-2</v>
+        <v>2.3547999999999999E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>1.4415000000000001E-2</v>
+        <v>9.5219999999999992E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>3.39E-2</v>
+        <v>2.2738999999999999E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.5289999999999993E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.0697E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6056,28 +8529,34 @@
         <v>1600</v>
       </c>
       <c r="B10" s="1">
-        <v>1.8072000000000001E-2</v>
+        <v>1.2756E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>5.0202999999999998E-2</v>
+        <v>3.1435999999999999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>1.8213E-2</v>
+        <v>1.2867999999999999E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>5.3073000000000002E-2</v>
+        <v>3.1619000000000001E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>1.9446000000000001E-2</v>
+        <v>1.2895E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>4.9579999999999999E-2</v>
+        <v>3.1153E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>2.1489000000000001E-2</v>
+        <v>1.2862E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>4.6509000000000002E-2</v>
+        <v>3.0183000000000001E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.3024000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.7591999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6086,28 +8565,34 @@
         <v>1800</v>
       </c>
       <c r="B11" s="1">
-        <v>2.3436999999999999E-2</v>
+        <v>1.6594999999999999E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>6.4984E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>2.4132000000000001E-2</v>
+        <v>1.6497000000000001E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>6.7493999999999998E-2</v>
+        <v>4.0736000000000001E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>2.3879999999999998E-2</v>
+        <v>1.6704E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>6.3431000000000001E-2</v>
+        <v>3.9816999999999998E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>2.4669E-2</v>
+        <v>1.6903000000000001E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>5.7817E-2</v>
+        <v>3.8522000000000001E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.6816999999999999E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.5358000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6116,16 +8601,34 @@
         <v>2000</v>
       </c>
       <c r="B12" s="1">
-        <v>3.1766000000000003E-2</v>
+        <v>2.1023E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>7.9757999999999996E-2</v>
+        <v>5.0289E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.1176E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.0285999999999997E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.1285999999999999E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.9605999999999997E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>3.0276999999999998E-2</v>
+        <v>2.1256000000000001E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>7.2952000000000003E-2</v>
+        <v>4.8134000000000003E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.1422E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.4344000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6134,10 +8637,34 @@
         <v>2200</v>
       </c>
       <c r="B13" s="1">
-        <v>3.7482000000000001E-2</v>
+        <v>2.606E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>9.9857000000000001E-2</v>
+        <v>6.2400999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.6353000000000001E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.2633999999999995E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.6273999999999999E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.6556E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.0047999999999997E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.6702E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.5439000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6146,10 +8673,34 @@
         <v>2400</v>
       </c>
       <c r="B14" s="1">
-        <v>4.4187999999999998E-2</v>
+        <v>3.1518999999999998E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.121938</v>
+        <v>7.5864000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.193E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.5935000000000002E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.209E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.4836E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.2155999999999997E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.3214000000000001E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6.7366999999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6158,10 +8709,34 @@
         <v>2600</v>
       </c>
       <c r="B15" s="1">
-        <v>5.2680999999999999E-2</v>
+        <v>3.7728999999999999E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>0.148202</v>
+        <v>9.0345999999999996E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.8573999999999997E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.0448000000000001E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.8275999999999998E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.9688000000000004E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.8317999999999998E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8.7094000000000005E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.8492999999999999E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8.0458000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6170,82 +8745,657 @@
         <v>2800</v>
       </c>
       <c r="B16" s="1">
-        <v>6.4558000000000004E-2</v>
+        <v>4.4585E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>0.16872899999999999</v>
+        <v>0.106087</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.4717E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.106623</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.5002E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.104979</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.5419000000000001E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.102447</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.5347999999999999E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.4485E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="B17" s="1">
-        <v>7.2525999999999993E-2</v>
+        <v>5.253E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>0.19997500000000001</v>
+        <v>0.124031</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.2610999999999998E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.123915</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.2641E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.121682</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.339E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.118881</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.3176000000000001E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.110291</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
       <c r="B18" s="1">
-        <v>8.5657999999999998E-2</v>
+        <v>5.9888999999999998E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>0.23547399999999999</v>
+        <v>0.14067499999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.9995E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.14158100000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.0755000000000003E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.14008200000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6.0804999999999998E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.13766</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6.1081000000000003E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.12785099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="B19" s="1">
-        <v>9.8711999999999994E-2</v>
+        <v>6.8453E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>0.26831199999999999</v>
+        <v>0.16055700000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.8760000000000002E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.16085199999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.9281999999999996E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.159331</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6.9231000000000001E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.155558</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6.9757E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.144458</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="B20" s="1">
-        <v>0.112737</v>
+        <v>7.7466999999999994E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>0.30074800000000002</v>
+        <v>0.18090600000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.7804999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.18218000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7.8802999999999998E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.17934700000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7.8828999999999996E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.17574000000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7.9334000000000002E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.16510900000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
+      <c r="B21" s="1">
+        <v>8.6739999999999998E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.20285300000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.7846999999999995E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.20243800000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.8248999999999994E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8.8711999999999999E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.196016</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.8758000000000004E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.183532</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
+      <c r="B22" s="1">
+        <v>9.6918000000000004E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.22547800000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.7747000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.23206099999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.7987000000000005E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.217394</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9.8541000000000004E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.19983300000000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>9.9318000000000004E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.17300499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="16:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6694CBE4-9FCA-A948-8BD9-A1EFA0946E15}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>9.9318000000000004E-2</v>
+      </c>
+      <c r="B1">
+        <v>0.17300499999999999</v>
+      </c>
+      <c r="C1" cm="1">
+        <f t="array" ref="C1">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D1" cm="1">
+        <f t="array" ref="D1">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>3.68E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.8758000000000004E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.183532</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>7.27E-4</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>1.4710000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7.9334000000000002E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.16510900000000001</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>1.601E-3</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>3.4139999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.9757E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.144458</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>2.8579999999999999E-3</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>6.1980000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.1081000000000003E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.12785099999999999</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>4.6010000000000001E-3</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>9.8189999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5.3176000000000001E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.110291</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>6.8539999999999998E-3</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>1.4883E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.5347999999999999E-2</v>
+      </c>
+      <c r="B7">
+        <v>9.4485E-2</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>9.5289999999999993E-3</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>2.0697E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.8492999999999999E-2</v>
+      </c>
+      <c r="B8">
+        <v>8.0458000000000002E-2</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>1.3024000000000001E-2</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>2.7591999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="B9">
+        <v>6.7366999999999996E-2</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>1.6816999999999999E-2</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>3.5358000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2.6702E-2</v>
+      </c>
+      <c r="B10">
+        <v>5.5439000000000002E-2</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>2.1422E-2</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>4.4344000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2.1422E-2</v>
+      </c>
+      <c r="B11">
+        <v>4.4344000000000001E-2</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>2.6702E-2</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>5.5439000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.6816999999999999E-2</v>
+      </c>
+      <c r="B12">
+        <v>3.5358000000000001E-2</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>3.2044999999999997E-2</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>6.7366999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.3024000000000001E-2</v>
+      </c>
+      <c r="B13">
+        <v>2.7591999999999998E-2</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>3.8492999999999999E-2</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>8.0458000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9.5289999999999993E-3</v>
+      </c>
+      <c r="B14">
+        <v>2.0697E-2</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>4.5347999999999999E-2</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>9.4485E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6.8539999999999998E-3</v>
+      </c>
+      <c r="B15">
+        <v>1.4883E-2</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>5.3176000000000001E-2</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>0.110291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4.6010000000000001E-3</v>
+      </c>
+      <c r="B16">
+        <v>9.8189999999999996E-3</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>6.1081000000000003E-2</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>0.12785099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2.8579999999999999E-3</v>
+      </c>
+      <c r="B17">
+        <v>6.1980000000000004E-3</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" ref="C17">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>6.9757E-2</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>0.144458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.601E-3</v>
+      </c>
+      <c r="B18">
+        <v>3.4139999999999999E-3</v>
+      </c>
+      <c r="C18" cm="1">
+        <f t="array" ref="C18">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>7.9334000000000002E-2</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>0.16510900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7.27E-4</v>
+      </c>
+      <c r="B19">
+        <v>1.4710000000000001E-3</v>
+      </c>
+      <c r="C19" cm="1">
+        <f t="array" ref="C19">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>8.8758000000000004E-2</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>0.183532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="B20">
+        <v>3.68E-4</v>
+      </c>
+      <c r="C20" cm="1">
+        <f t="array" ref="C20">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
+        <v>9.9318000000000004E-2</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
+        <v>0.17300499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeelongsiah/Desktop/School/NTU/SC2001/Dijkstra's Alg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E3FD9-D41C-2146-B160-A10C75077835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24383969-12D1-9B46-8F52-BB52EDC0FC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{8A83C292-6E76-F249-AC67-58BE18C7F3DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="results for disjoint graph" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,42 +36,50 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>runtime (matrix)</t>
   </si>
   <si>
     <t>runtime (list)</t>
   </si>
+  <si>
+    <t>Connectedness: 100</t>
+  </si>
+  <si>
+    <t>Connectedness: 80</t>
+  </si>
+  <si>
+    <t>Connectedness: 60</t>
+  </si>
+  <si>
+    <t>Connectedness: 40</t>
+  </si>
+  <si>
+    <t>Connectedness: 20</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>partitions</t>
+  </si>
+  <si>
+    <t>this sheet compares the runtime according to the number of partitions made on a 2000 size fully connected graph</t>
+  </si>
+  <si>
+    <t>this sheet compares the runtimes with respect to the size of graph and also the connectedness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,13 +100,26 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,16 +134,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,7 +242,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -283,69 +311,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$22</c:f>
+              <c:f>results!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.9599999999999999E-4</c:v>
+                  <c:v>3.5100000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2400000000000003E-4</c:v>
+                  <c:v>1.4859999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5640000000000001E-3</c:v>
+                  <c:v>6.012E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8549999999999999E-3</c:v>
+                  <c:v>6.2059999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.529E-3</c:v>
+                  <c:v>6.5449999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7409999999999996E-3</c:v>
+                  <c:v>9.5230000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4450000000000003E-3</c:v>
+                  <c:v>1.3138E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2756E-2</c:v>
+                  <c:v>1.7443E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6594999999999999E-2</c:v>
+                  <c:v>2.2807999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1023E-2</c:v>
+                  <c:v>2.9113E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.606E-2</c:v>
+                  <c:v>3.5624000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1518999999999998E-2</c:v>
+                  <c:v>4.3431999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7728999999999999E-2</c:v>
+                  <c:v>5.1982E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4585E-2</c:v>
+                  <c:v>6.1298999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.253E-2</c:v>
+                  <c:v>7.1620000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9888999999999998E-2</c:v>
+                  <c:v>8.3396999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8453E-2</c:v>
+                  <c:v>9.5156000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7466999999999994E-2</c:v>
+                  <c:v>0.10845</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6739999999999998E-2</c:v>
+                  <c:v>0.122346</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.6918000000000004E-2</c:v>
+                  <c:v>0.13867399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,7 +393,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -434,69 +462,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$22</c:f>
+              <c:f>results!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.4299999999999998E-4</c:v>
+                  <c:v>1.1969999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.732E-3</c:v>
+                  <c:v>5.0090000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0419999999999996E-3</c:v>
+                  <c:v>1.3769999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2940000000000001E-3</c:v>
+                  <c:v>1.2326E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1448E-2</c:v>
+                  <c:v>1.8010999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7181999999999999E-2</c:v>
+                  <c:v>2.7171000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3873999999999999E-2</c:v>
+                  <c:v>3.7735999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1435999999999999E-2</c:v>
+                  <c:v>4.9917000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0399999999999998E-2</c:v>
+                  <c:v>6.3912999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0289E-2</c:v>
+                  <c:v>7.9607999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2400999999999998E-2</c:v>
+                  <c:v>9.9168999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5864000000000001E-2</c:v>
+                  <c:v>0.120466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0345999999999996E-2</c:v>
+                  <c:v>0.14330100000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.106087</c:v>
+                  <c:v>0.16898199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.124031</c:v>
+                  <c:v>0.19536700000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14067499999999999</c:v>
+                  <c:v>0.22350500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16055700000000001</c:v>
+                  <c:v>0.25622800000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18090600000000001</c:v>
+                  <c:v>0.29241699999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20285300000000001</c:v>
+                  <c:v>0.32511299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22547800000000001</c:v>
+                  <c:v>0.36317700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +803,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -844,69 +872,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:f>results!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0100000000000001E-4</c:v>
+                  <c:v>2.99E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1500000000000003E-4</c:v>
+                  <c:v>1.0839999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.598E-3</c:v>
+                  <c:v>2.3649999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.026E-3</c:v>
+                  <c:v>4.2129999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6319999999999998E-3</c:v>
+                  <c:v>6.581E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7149999999999996E-3</c:v>
+                  <c:v>9.5250000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.476E-3</c:v>
+                  <c:v>1.3178E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2867999999999999E-2</c:v>
+                  <c:v>1.7602E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6497000000000001E-2</c:v>
+                  <c:v>2.2925999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1176E-2</c:v>
+                  <c:v>2.9994E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6353000000000001E-2</c:v>
+                  <c:v>3.6088000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.193E-2</c:v>
+                  <c:v>4.3813999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8573999999999997E-2</c:v>
+                  <c:v>5.2352000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4717E-2</c:v>
+                  <c:v>6.1939000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2610999999999998E-2</c:v>
+                  <c:v>7.2241E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9995E-2</c:v>
+                  <c:v>8.3636000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8760000000000002E-2</c:v>
+                  <c:v>9.5921999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7804999999999999E-2</c:v>
+                  <c:v>0.10950500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.7846999999999995E-2</c:v>
+                  <c:v>0.123558</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7747000000000001E-2</c:v>
+                  <c:v>0.13932600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +963,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1004,69 +1032,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$22</c:f>
+              <c:f>results!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.4299999999999998E-4</c:v>
+                  <c:v>4.3140000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.743E-3</c:v>
+                  <c:v>2.8570000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0070000000000001E-3</c:v>
+                  <c:v>6.646E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3130000000000001E-3</c:v>
+                  <c:v>1.2026E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1846000000000001E-2</c:v>
+                  <c:v>1.9047000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7186E-2</c:v>
+                  <c:v>2.9107999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3859000000000002E-2</c:v>
+                  <c:v>4.0085999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1619000000000001E-2</c:v>
+                  <c:v>5.3122000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0736000000000001E-2</c:v>
+                  <c:v>6.8583000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0285999999999997E-2</c:v>
+                  <c:v>8.4754999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2633999999999995E-2</c:v>
+                  <c:v>0.10473399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5935000000000002E-2</c:v>
+                  <c:v>0.12874099999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0448000000000001E-2</c:v>
+                  <c:v>0.15138099999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.106623</c:v>
+                  <c:v>0.17705000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.123915</c:v>
+                  <c:v>0.20521200000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14158100000000001</c:v>
+                  <c:v>0.23577500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16085199999999999</c:v>
+                  <c:v>0.267988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18218000000000001</c:v>
+                  <c:v>0.30201600000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20243800000000001</c:v>
+                  <c:v>0.34028000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23206099999999999</c:v>
+                  <c:v>0.37723699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,7 +1401,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1442,69 +1470,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$22</c:f>
+              <c:f>results!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0100000000000001E-4</c:v>
+                  <c:v>3.0400000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1400000000000001E-4</c:v>
+                  <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.58E-3</c:v>
+                  <c:v>2.3770000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8240000000000001E-3</c:v>
+                  <c:v>4.2059999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5640000000000003E-3</c:v>
+                  <c:v>6.5970000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.816E-3</c:v>
+                  <c:v>9.6050000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5919999999999998E-3</c:v>
+                  <c:v>1.3280999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2895E-2</c:v>
+                  <c:v>1.7801000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6704E-2</c:v>
+                  <c:v>2.3148999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1285999999999999E-2</c:v>
+                  <c:v>2.9559999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6273999999999999E-2</c:v>
+                  <c:v>3.6247000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.209E-2</c:v>
+                  <c:v>5.0390999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8275999999999998E-2</c:v>
+                  <c:v>5.3573999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5002E-2</c:v>
+                  <c:v>6.3355999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2641E-2</c:v>
+                  <c:v>7.3745000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0755000000000003E-2</c:v>
+                  <c:v>8.4339999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9281999999999996E-2</c:v>
+                  <c:v>9.9127999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8802999999999998E-2</c:v>
+                  <c:v>0.110335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8248999999999994E-2</c:v>
+                  <c:v>0.12815699999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7987000000000005E-2</c:v>
+                  <c:v>0.14510500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,7 +1561,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1602,69 +1630,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$22</c:f>
+              <c:f>results!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.3300000000000001E-4</c:v>
+                  <c:v>4.4140000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7099999999999999E-3</c:v>
+                  <c:v>2.6830000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.947E-3</c:v>
+                  <c:v>6.1789999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1190000000000003E-3</c:v>
+                  <c:v>1.1169E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1204E-2</c:v>
+                  <c:v>1.7786E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6899999999999998E-2</c:v>
+                  <c:v>2.7015000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3547999999999999E-2</c:v>
+                  <c:v>3.7541999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1153E-2</c:v>
+                  <c:v>4.9732999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9816999999999998E-2</c:v>
+                  <c:v>6.3573000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9605999999999997E-2</c:v>
+                  <c:v>7.9016000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1800000000000001E-2</c:v>
+                  <c:v>9.8225000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4836E-2</c:v>
+                  <c:v>0.121863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9688000000000004E-2</c:v>
+                  <c:v>0.15376699999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.104979</c:v>
+                  <c:v>0.16777600000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.121682</c:v>
+                  <c:v>0.19556299999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14008200000000001</c:v>
+                  <c:v>0.25959900000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.159331</c:v>
+                  <c:v>0.25430399999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17934700000000001</c:v>
+                  <c:v>0.29503099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20019999999999999</c:v>
+                  <c:v>0.36471700000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.217394</c:v>
+                  <c:v>0.36584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,7 +1999,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2040,69 +2068,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$22</c:f>
+              <c:f>results!$H$3:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>3.2200000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2199999999999999E-4</c:v>
+                  <c:v>1.1169999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.604E-3</c:v>
+                  <c:v>2.4260000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8730000000000001E-3</c:v>
+                  <c:v>4.3030000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5700000000000003E-3</c:v>
+                  <c:v>6.7910000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7710000000000001E-3</c:v>
+                  <c:v>9.9279999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5219999999999992E-3</c:v>
+                  <c:v>1.3636000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2862E-2</c:v>
+                  <c:v>1.8284999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6903000000000001E-2</c:v>
+                  <c:v>2.3893000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1256000000000001E-2</c:v>
+                  <c:v>2.9641000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6556E-2</c:v>
+                  <c:v>3.6621000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2155999999999997E-2</c:v>
+                  <c:v>4.4477000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8317999999999998E-2</c:v>
+                  <c:v>5.3248999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5419000000000001E-2</c:v>
+                  <c:v>6.2728000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.339E-2</c:v>
+                  <c:v>7.3566999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0804999999999998E-2</c:v>
+                  <c:v>8.5196999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9231000000000001E-2</c:v>
+                  <c:v>9.7162999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8828999999999996E-2</c:v>
+                  <c:v>0.11222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8711999999999999E-2</c:v>
+                  <c:v>0.13002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8541000000000004E-2</c:v>
+                  <c:v>0.14222099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,7 +2159,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2200,69 +2228,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$22</c:f>
+              <c:f>results!$I$3:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.1599999999999997E-4</c:v>
+                  <c:v>4.2329999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6479999999999999E-3</c:v>
+                  <c:v>2.4819999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8049999999999998E-3</c:v>
+                  <c:v>5.6410000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8910000000000004E-3</c:v>
+                  <c:v>1.0288E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0839E-2</c:v>
+                  <c:v>1.6885000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6329E-2</c:v>
+                  <c:v>2.4844999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2738999999999999E-2</c:v>
+                  <c:v>3.5202999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0183000000000001E-2</c:v>
+                  <c:v>4.5648000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8522000000000001E-2</c:v>
+                  <c:v>5.8540000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8134000000000003E-2</c:v>
+                  <c:v>7.3480000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0047999999999997E-2</c:v>
+                  <c:v>9.1175999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3214000000000001E-2</c:v>
+                  <c:v>0.111112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7094000000000005E-2</c:v>
+                  <c:v>0.13273499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.102447</c:v>
+                  <c:v>0.154589</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.118881</c:v>
+                  <c:v>0.178033</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13766</c:v>
+                  <c:v>0.20550599999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.155558</c:v>
+                  <c:v>0.234347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17574000000000001</c:v>
+                  <c:v>0.27703800000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.196016</c:v>
+                  <c:v>0.31351499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19983300000000001</c:v>
+                  <c:v>0.33253300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,7 +2597,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2638,69 +2666,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$22</c:f>
+              <c:f>results!$J$3:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>3.1199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.27E-4</c:v>
+                  <c:v>1.1249999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.601E-3</c:v>
+                  <c:v>2.441E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8579999999999999E-3</c:v>
+                  <c:v>4.3099999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6010000000000001E-3</c:v>
+                  <c:v>7.0699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8539999999999998E-3</c:v>
+                  <c:v>9.9330000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5289999999999993E-3</c:v>
+                  <c:v>1.3644999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3024000000000001E-2</c:v>
+                  <c:v>1.8194999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6816999999999999E-2</c:v>
+                  <c:v>2.3473000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1422E-2</c:v>
+                  <c:v>2.9703E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6702E-2</c:v>
+                  <c:v>3.6461E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2044999999999997E-2</c:v>
+                  <c:v>4.4979999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8492999999999999E-2</c:v>
+                  <c:v>5.3163000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5347999999999999E-2</c:v>
+                  <c:v>6.3650999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3176000000000001E-2</c:v>
+                  <c:v>7.3553999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1081000000000003E-2</c:v>
+                  <c:v>8.7928000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9757E-2</c:v>
+                  <c:v>9.7463999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9334000000000002E-2</c:v>
+                  <c:v>0.111405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8758000000000004E-2</c:v>
+                  <c:v>0.126584</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9318000000000004E-2</c:v>
+                  <c:v>0.14158499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,7 +2757,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2798,69 +2826,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$22</c:f>
+              <c:f>results!$K$3:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.68E-4</c:v>
+                  <c:v>3.7699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4710000000000001E-3</c:v>
+                  <c:v>1.9780000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4139999999999999E-3</c:v>
+                  <c:v>4.5859999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1980000000000004E-3</c:v>
+                  <c:v>9.4699999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8189999999999996E-3</c:v>
+                  <c:v>1.3538E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4883E-2</c:v>
+                  <c:v>2.0559000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0697E-2</c:v>
+                  <c:v>2.9621999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7591999999999998E-2</c:v>
+                  <c:v>3.8705000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5358000000000001E-2</c:v>
+                  <c:v>4.9577999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4344000000000001E-2</c:v>
+                  <c:v>6.3747999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5439000000000002E-2</c:v>
+                  <c:v>7.8253000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7366999999999996E-2</c:v>
+                  <c:v>9.6689999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0458000000000002E-2</c:v>
+                  <c:v>0.11261699999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.4485E-2</c:v>
+                  <c:v>0.13319500000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.110291</c:v>
+                  <c:v>0.15411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12785099999999999</c:v>
+                  <c:v>0.18690599999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.144458</c:v>
+                  <c:v>0.20313300000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16510900000000001</c:v>
+                  <c:v>0.22789599999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.183532</c:v>
+                  <c:v>0.256886</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17300499999999999</c:v>
+                  <c:v>0.28352699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,7 +3170,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3211,66 +3239,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$22</c:f>
+              <c:f>results!$B$4:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.2400000000000003E-4</c:v>
+                  <c:v>1.4859999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5640000000000001E-3</c:v>
+                  <c:v>6.012E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8549999999999999E-3</c:v>
+                  <c:v>6.2059999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.529E-3</c:v>
+                  <c:v>6.5449999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7409999999999996E-3</c:v>
+                  <c:v>9.5230000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4450000000000003E-3</c:v>
+                  <c:v>1.3138E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2756E-2</c:v>
+                  <c:v>1.7443E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6594999999999999E-2</c:v>
+                  <c:v>2.2807999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1023E-2</c:v>
+                  <c:v>2.9113E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.606E-2</c:v>
+                  <c:v>3.5624000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1518999999999998E-2</c:v>
+                  <c:v>4.3431999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7728999999999999E-2</c:v>
+                  <c:v>5.1982E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4585E-2</c:v>
+                  <c:v>6.1298999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.253E-2</c:v>
+                  <c:v>7.1620000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9888999999999998E-2</c:v>
+                  <c:v>8.3396999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8453E-2</c:v>
+                  <c:v>9.5156000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.7466999999999994E-2</c:v>
+                  <c:v>0.10845</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.6739999999999998E-2</c:v>
+                  <c:v>0.122346</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.6918000000000004E-2</c:v>
+                  <c:v>0.13867399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,7 +3327,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3368,66 +3396,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$22</c:f>
+              <c:f>results!$C$4:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.732E-3</c:v>
+                  <c:v>5.0090000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0419999999999996E-3</c:v>
+                  <c:v>1.3769999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2940000000000001E-3</c:v>
+                  <c:v>1.2326E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1448E-2</c:v>
+                  <c:v>1.8010999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7181999999999999E-2</c:v>
+                  <c:v>2.7171000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3873999999999999E-2</c:v>
+                  <c:v>3.7735999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1435999999999999E-2</c:v>
+                  <c:v>4.9917000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0399999999999998E-2</c:v>
+                  <c:v>6.3912999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0289E-2</c:v>
+                  <c:v>7.9607999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2400999999999998E-2</c:v>
+                  <c:v>9.9168999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5864000000000001E-2</c:v>
+                  <c:v>0.120466</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0345999999999996E-2</c:v>
+                  <c:v>0.14330100000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.106087</c:v>
+                  <c:v>0.16898199999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.124031</c:v>
+                  <c:v>0.19536700000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14067499999999999</c:v>
+                  <c:v>0.22350500000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16055700000000001</c:v>
+                  <c:v>0.25622800000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18090600000000001</c:v>
+                  <c:v>0.29241699999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20285300000000001</c:v>
+                  <c:v>0.32511299999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22547800000000001</c:v>
+                  <c:v>0.36317700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,7 +3484,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3525,66 +3553,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$22</c:f>
+              <c:f>results!$D$4:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.1500000000000003E-4</c:v>
+                  <c:v>1.0839999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.598E-3</c:v>
+                  <c:v>2.3649999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.026E-3</c:v>
+                  <c:v>4.2129999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6319999999999998E-3</c:v>
+                  <c:v>6.581E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7149999999999996E-3</c:v>
+                  <c:v>9.5250000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.476E-3</c:v>
+                  <c:v>1.3178E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2867999999999999E-2</c:v>
+                  <c:v>1.7602E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6497000000000001E-2</c:v>
+                  <c:v>2.2925999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1176E-2</c:v>
+                  <c:v>2.9994E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6353000000000001E-2</c:v>
+                  <c:v>3.6088000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.193E-2</c:v>
+                  <c:v>4.3813999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8573999999999997E-2</c:v>
+                  <c:v>5.2352000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4717E-2</c:v>
+                  <c:v>6.1939000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2610999999999998E-2</c:v>
+                  <c:v>7.2241E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9995E-2</c:v>
+                  <c:v>8.3636000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8760000000000002E-2</c:v>
+                  <c:v>9.5921999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.7804999999999999E-2</c:v>
+                  <c:v>0.10950500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7846999999999995E-2</c:v>
+                  <c:v>0.123558</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7747000000000001E-2</c:v>
+                  <c:v>0.13932600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,7 +3641,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3682,66 +3710,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$22</c:f>
+              <c:f>results!$E$4:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.743E-3</c:v>
+                  <c:v>2.8570000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0070000000000001E-3</c:v>
+                  <c:v>6.646E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3130000000000001E-3</c:v>
+                  <c:v>1.2026E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1846000000000001E-2</c:v>
+                  <c:v>1.9047000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7186E-2</c:v>
+                  <c:v>2.9107999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3859000000000002E-2</c:v>
+                  <c:v>4.0085999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1619000000000001E-2</c:v>
+                  <c:v>5.3122000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0736000000000001E-2</c:v>
+                  <c:v>6.8583000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0285999999999997E-2</c:v>
+                  <c:v>8.4754999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2633999999999995E-2</c:v>
+                  <c:v>0.10473399999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5935000000000002E-2</c:v>
+                  <c:v>0.12874099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0448000000000001E-2</c:v>
+                  <c:v>0.15138099999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.106623</c:v>
+                  <c:v>0.17705000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.123915</c:v>
+                  <c:v>0.20521200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14158100000000001</c:v>
+                  <c:v>0.23577500000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16085199999999999</c:v>
+                  <c:v>0.267988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18218000000000001</c:v>
+                  <c:v>0.30201600000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20243800000000001</c:v>
+                  <c:v>0.34028000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23206099999999999</c:v>
+                  <c:v>0.37723699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,7 +3800,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3841,66 +3869,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$22</c:f>
+              <c:f>results!$F$4:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.1400000000000001E-4</c:v>
+                  <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.58E-3</c:v>
+                  <c:v>2.3770000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8240000000000001E-3</c:v>
+                  <c:v>4.2059999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5640000000000003E-3</c:v>
+                  <c:v>6.5970000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.816E-3</c:v>
+                  <c:v>9.6050000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5919999999999998E-3</c:v>
+                  <c:v>1.3280999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2895E-2</c:v>
+                  <c:v>1.7801000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6704E-2</c:v>
+                  <c:v>2.3148999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1285999999999999E-2</c:v>
+                  <c:v>2.9559999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6273999999999999E-2</c:v>
+                  <c:v>3.6247000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.209E-2</c:v>
+                  <c:v>5.0390999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8275999999999998E-2</c:v>
+                  <c:v>5.3573999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5002E-2</c:v>
+                  <c:v>6.3355999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2641E-2</c:v>
+                  <c:v>7.3745000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0755000000000003E-2</c:v>
+                  <c:v>8.4339999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9281999999999996E-2</c:v>
+                  <c:v>9.9127999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8802999999999998E-2</c:v>
+                  <c:v>0.110335</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8248999999999994E-2</c:v>
+                  <c:v>0.12815699999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7987000000000005E-2</c:v>
+                  <c:v>0.14510500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,7 +3959,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4000,66 +4028,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$22</c:f>
+              <c:f>results!$G$4:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7099999999999999E-3</c:v>
+                  <c:v>2.6830000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.947E-3</c:v>
+                  <c:v>6.1789999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1190000000000003E-3</c:v>
+                  <c:v>1.1169E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1204E-2</c:v>
+                  <c:v>1.7786E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6899999999999998E-2</c:v>
+                  <c:v>2.7015000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3547999999999999E-2</c:v>
+                  <c:v>3.7541999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1153E-2</c:v>
+                  <c:v>4.9732999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9816999999999998E-2</c:v>
+                  <c:v>6.3573000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9605999999999997E-2</c:v>
+                  <c:v>7.9016000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1800000000000001E-2</c:v>
+                  <c:v>9.8225000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4836E-2</c:v>
+                  <c:v>0.121863</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9688000000000004E-2</c:v>
+                  <c:v>0.15376699999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.104979</c:v>
+                  <c:v>0.16777600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.121682</c:v>
+                  <c:v>0.19556299999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14008200000000001</c:v>
+                  <c:v>0.25959900000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.159331</c:v>
+                  <c:v>0.25430399999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17934700000000001</c:v>
+                  <c:v>0.29503099999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20019999999999999</c:v>
+                  <c:v>0.36471700000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.217394</c:v>
+                  <c:v>0.36584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4087,7 +4115,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4156,66 +4184,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$22</c:f>
+              <c:f>results!$H$4:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.2199999999999999E-4</c:v>
+                  <c:v>1.1169999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.604E-3</c:v>
+                  <c:v>2.4260000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8730000000000001E-3</c:v>
+                  <c:v>4.3030000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5700000000000003E-3</c:v>
+                  <c:v>6.7910000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7710000000000001E-3</c:v>
+                  <c:v>9.9279999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5219999999999992E-3</c:v>
+                  <c:v>1.3636000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2862E-2</c:v>
+                  <c:v>1.8284999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6903000000000001E-2</c:v>
+                  <c:v>2.3893000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1256000000000001E-2</c:v>
+                  <c:v>2.9641000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6556E-2</c:v>
+                  <c:v>3.6621000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2155999999999997E-2</c:v>
+                  <c:v>4.4477000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8317999999999998E-2</c:v>
+                  <c:v>5.3248999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5419000000000001E-2</c:v>
+                  <c:v>6.2728000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.339E-2</c:v>
+                  <c:v>7.3566999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0804999999999998E-2</c:v>
+                  <c:v>8.5196999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9231000000000001E-2</c:v>
+                  <c:v>9.7162999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8828999999999996E-2</c:v>
+                  <c:v>0.11222</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8711999999999999E-2</c:v>
+                  <c:v>0.13002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8541000000000004E-2</c:v>
+                  <c:v>0.14222099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4243,7 +4271,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4312,66 +4340,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$22</c:f>
+              <c:f>results!$I$4:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.6479999999999999E-3</c:v>
+                  <c:v>2.4819999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8049999999999998E-3</c:v>
+                  <c:v>5.6410000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8910000000000004E-3</c:v>
+                  <c:v>1.0288E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0839E-2</c:v>
+                  <c:v>1.6885000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6329E-2</c:v>
+                  <c:v>2.4844999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2738999999999999E-2</c:v>
+                  <c:v>3.5202999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0183000000000001E-2</c:v>
+                  <c:v>4.5648000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8522000000000001E-2</c:v>
+                  <c:v>5.8540000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8134000000000003E-2</c:v>
+                  <c:v>7.3480000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0047999999999997E-2</c:v>
+                  <c:v>9.1175999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3214000000000001E-2</c:v>
+                  <c:v>0.111112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7094000000000005E-2</c:v>
+                  <c:v>0.13273499999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.102447</c:v>
+                  <c:v>0.154589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.118881</c:v>
+                  <c:v>0.178033</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13766</c:v>
+                  <c:v>0.20550599999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.155558</c:v>
+                  <c:v>0.234347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17574000000000001</c:v>
+                  <c:v>0.27703800000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.196016</c:v>
+                  <c:v>0.31351499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19983300000000001</c:v>
+                  <c:v>0.33253300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4399,7 +4427,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4468,66 +4496,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$22</c:f>
+              <c:f>results!$J$4:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.27E-4</c:v>
+                  <c:v>1.1249999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.601E-3</c:v>
+                  <c:v>2.441E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8579999999999999E-3</c:v>
+                  <c:v>4.3099999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6010000000000001E-3</c:v>
+                  <c:v>7.0699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8539999999999998E-3</c:v>
+                  <c:v>9.9330000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5289999999999993E-3</c:v>
+                  <c:v>1.3644999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3024000000000001E-2</c:v>
+                  <c:v>1.8194999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6816999999999999E-2</c:v>
+                  <c:v>2.3473000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1422E-2</c:v>
+                  <c:v>2.9703E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6702E-2</c:v>
+                  <c:v>3.6461E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2044999999999997E-2</c:v>
+                  <c:v>4.4979999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8492999999999999E-2</c:v>
+                  <c:v>5.3163000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5347999999999999E-2</c:v>
+                  <c:v>6.3650999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3176000000000001E-2</c:v>
+                  <c:v>7.3553999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1081000000000003E-2</c:v>
+                  <c:v>8.7928000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9757E-2</c:v>
+                  <c:v>9.7463999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9334000000000002E-2</c:v>
+                  <c:v>0.111405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8758000000000004E-2</c:v>
+                  <c:v>0.126584</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.9318000000000004E-2</c:v>
+                  <c:v>0.14158499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4555,7 +4583,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>results!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4624,66 +4652,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$22</c:f>
+              <c:f>results!$K$4:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.4710000000000001E-3</c:v>
+                  <c:v>1.9780000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4139999999999999E-3</c:v>
+                  <c:v>4.5859999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1980000000000004E-3</c:v>
+                  <c:v>9.4699999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8189999999999996E-3</c:v>
+                  <c:v>1.3538E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4883E-2</c:v>
+                  <c:v>2.0559000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0697E-2</c:v>
+                  <c:v>2.9621999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7591999999999998E-2</c:v>
+                  <c:v>3.8705000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5358000000000001E-2</c:v>
+                  <c:v>4.9577999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4344000000000001E-2</c:v>
+                  <c:v>6.3747999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5439000000000002E-2</c:v>
+                  <c:v>7.8253000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7366999999999996E-2</c:v>
+                  <c:v>9.6689999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0458000000000002E-2</c:v>
+                  <c:v>0.11261699999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4485E-2</c:v>
+                  <c:v>0.13319500000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.110291</c:v>
+                  <c:v>0.15411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12785099999999999</c:v>
+                  <c:v>0.18690599999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.144458</c:v>
+                  <c:v>0.20313300000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16510900000000001</c:v>
+                  <c:v>0.22789599999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.183532</c:v>
+                  <c:v>0.256886</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17300499999999999</c:v>
+                  <c:v>0.28352699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7670,14 +7698,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>521856</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>242456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7706,14 +7734,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>558800</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>101601</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>417943</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7744,14 +7772,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>558800</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2641601</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>417943</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7782,14 +7810,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2489201</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>468743</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>189343</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7820,14 +7848,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>584200</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2463801</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>443343</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7857,15 +7885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>769220</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>577155</xdr:rowOff>
+      <xdr:colOff>972420</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>145355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2081389</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>341018</xdr:rowOff>
+      <xdr:colOff>2284589</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>518818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8190,10 +8218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C20B9EC-4AA2-AE46-8826-2B4D3F091796}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="50" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="47" x14ac:dyDescent="0.55000000000000004"/>
@@ -8216,31 +8244,31 @@
     <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3">
         <v>0.8</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3">
         <v>0.6</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2">
+      <c r="G1" s="4"/>
+      <c r="H1" s="3">
         <v>0.4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3">
         <v>0.2</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8272,507 +8300,521 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>1.9599999999999999E-4</v>
+        <v>3.5100000000000002E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>4.4299999999999998E-4</v>
+        <v>1.1969999999999999E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0100000000000001E-4</v>
+        <v>2.99E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>4.4299999999999998E-4</v>
+        <v>4.3140000000000001E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0100000000000001E-4</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="G3" s="1">
-        <v>4.3300000000000001E-4</v>
+        <v>4.4140000000000004E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>3.2200000000000002E-4</v>
       </c>
       <c r="I3" s="1">
-        <v>4.1599999999999997E-4</v>
+        <v>4.2329999999999998E-3</v>
       </c>
       <c r="J3" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>3.1199999999999999E-4</v>
       </c>
       <c r="K3" s="1">
-        <v>3.68E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>3.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <f>A3+200</f>
         <v>400</v>
       </c>
       <c r="B4" s="1">
-        <v>7.2400000000000003E-4</v>
+        <v>1.4859999999999999E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.732E-3</v>
+        <v>5.0090000000000004E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>7.1500000000000003E-4</v>
+        <v>1.0839999999999999E-3</v>
       </c>
       <c r="E4" s="1">
-        <v>1.743E-3</v>
+        <v>2.8570000000000002E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>7.1400000000000001E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>1.7099999999999999E-3</v>
+        <v>2.6830000000000001E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>7.2199999999999999E-4</v>
+        <v>1.1169999999999999E-3</v>
       </c>
       <c r="I4" s="1">
-        <v>1.6479999999999999E-3</v>
+        <v>2.4819999999999998E-3</v>
       </c>
       <c r="J4" s="1">
-        <v>7.27E-4</v>
+        <v>1.1249999999999999E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>1.4710000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>1.9780000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A22" si="0">A4+200</f>
         <v>600</v>
       </c>
       <c r="B5" s="1">
-        <v>1.5640000000000001E-3</v>
+        <v>6.012E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0419999999999996E-3</v>
+        <v>1.3769999999999999E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.598E-3</v>
+        <v>2.3649999999999999E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>4.0070000000000001E-3</v>
+        <v>6.646E-3</v>
       </c>
       <c r="F5" s="1">
-        <v>1.58E-3</v>
+        <v>2.3770000000000002E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>3.947E-3</v>
+        <v>6.1789999999999996E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>1.604E-3</v>
+        <v>2.4260000000000002E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>3.8049999999999998E-3</v>
+        <v>5.6410000000000002E-3</v>
       </c>
       <c r="J5" s="1">
-        <v>1.601E-3</v>
+        <v>2.441E-3</v>
       </c>
       <c r="K5" s="1">
-        <v>3.4139999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>4.5859999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="B6" s="1">
-        <v>2.8549999999999999E-3</v>
+        <v>6.2059999999999997E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.2940000000000001E-3</v>
+        <v>1.2326E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>3.026E-3</v>
+        <v>4.2129999999999997E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>7.3130000000000001E-3</v>
+        <v>1.2026E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>2.8240000000000001E-3</v>
+        <v>4.2059999999999997E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>7.1190000000000003E-3</v>
+        <v>1.1169E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>2.8730000000000001E-3</v>
+        <v>4.3030000000000004E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>6.8910000000000004E-3</v>
+        <v>1.0288E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>2.8579999999999999E-3</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>6.1980000000000004E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>9.4699999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="B7" s="1">
-        <v>4.529E-3</v>
+        <v>6.5449999999999996E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.1448E-2</v>
+        <v>1.8010999999999999E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>4.6319999999999998E-3</v>
+        <v>6.581E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>1.1846000000000001E-2</v>
+        <v>1.9047000000000001E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>4.5640000000000003E-3</v>
+        <v>6.5970000000000004E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>1.1204E-2</v>
+        <v>1.7786E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>4.5700000000000003E-3</v>
+        <v>6.7910000000000002E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0839E-2</v>
+        <v>1.6885000000000001E-2</v>
       </c>
       <c r="J7" s="1">
-        <v>4.6010000000000001E-3</v>
+        <v>7.0699999999999999E-3</v>
       </c>
       <c r="K7" s="1">
-        <v>9.8189999999999996E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>1.3538E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="B8" s="1">
-        <v>6.7409999999999996E-3</v>
+        <v>9.5230000000000002E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.7181999999999999E-2</v>
+        <v>2.7171000000000001E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>6.7149999999999996E-3</v>
+        <v>9.5250000000000005E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>1.7186E-2</v>
+        <v>2.9107999999999998E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>6.816E-3</v>
+        <v>9.6050000000000007E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>1.6899999999999998E-2</v>
+        <v>2.7015000000000001E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>6.7710000000000001E-3</v>
+        <v>9.9279999999999993E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>1.6329E-2</v>
+        <v>2.4844999999999999E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>6.8539999999999998E-3</v>
+        <v>9.9330000000000009E-3</v>
       </c>
       <c r="K8" s="1">
-        <v>1.4883E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>2.0559000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="B9" s="1">
-        <v>9.4450000000000003E-3</v>
+        <v>1.3138E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>2.3873999999999999E-2</v>
+        <v>3.7735999999999999E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>9.476E-3</v>
+        <v>1.3178E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>2.3859000000000002E-2</v>
+        <v>4.0085999999999997E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>9.5919999999999998E-3</v>
+        <v>1.3280999999999999E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>2.3547999999999999E-2</v>
+        <v>3.7541999999999999E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>9.5219999999999992E-3</v>
+        <v>1.3636000000000001E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>2.2738999999999999E-2</v>
+        <v>3.5202999999999998E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>9.5289999999999993E-3</v>
+        <v>1.3644999999999999E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>2.0697E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>2.9621999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="B10" s="1">
-        <v>1.2756E-2</v>
+        <v>1.7443E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>3.1435999999999999E-2</v>
+        <v>4.9917000000000003E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>1.2867999999999999E-2</v>
+        <v>1.7602E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>3.1619000000000001E-2</v>
+        <v>5.3122000000000003E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>1.2895E-2</v>
+        <v>1.7801000000000001E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>3.1153E-2</v>
+        <v>4.9732999999999999E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>1.2862E-2</v>
+        <v>1.8284999999999999E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>3.0183000000000001E-2</v>
+        <v>4.5648000000000001E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>1.3024000000000001E-2</v>
+        <v>1.8194999999999999E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>2.7591999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>3.8705000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="B11" s="1">
-        <v>1.6594999999999999E-2</v>
+        <v>2.2807999999999998E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>4.0399999999999998E-2</v>
+        <v>6.3912999999999998E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>1.6497000000000001E-2</v>
+        <v>2.2925999999999998E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>4.0736000000000001E-2</v>
+        <v>6.8583000000000005E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>1.6704E-2</v>
+        <v>2.3148999999999999E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>3.9816999999999998E-2</v>
+        <v>6.3573000000000005E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>1.6903000000000001E-2</v>
+        <v>2.3893000000000001E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>3.8522000000000001E-2</v>
+        <v>5.8540000000000002E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>1.6816999999999999E-2</v>
+        <v>2.3473000000000001E-2</v>
       </c>
       <c r="K11" s="1">
-        <v>3.5358000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>4.9577999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="B12" s="1">
-        <v>2.1023E-2</v>
+        <v>2.9113E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>5.0289E-2</v>
+        <v>7.9607999999999998E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.1176E-2</v>
+        <v>2.9994E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>5.0285999999999997E-2</v>
+        <v>8.4754999999999997E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>2.1285999999999999E-2</v>
+        <v>2.9559999999999999E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>4.9605999999999997E-2</v>
+        <v>7.9016000000000003E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>2.1256000000000001E-2</v>
+        <v>2.9641000000000001E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>4.8134000000000003E-2</v>
+        <v>7.3480000000000004E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>2.1422E-2</v>
+        <v>2.9703E-2</v>
       </c>
       <c r="K12" s="1">
-        <v>4.4344000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>6.3747999999999999E-2</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="B13" s="1">
-        <v>2.606E-2</v>
+        <v>3.5624000000000003E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>6.2400999999999998E-2</v>
+        <v>9.9168999999999993E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>2.6353000000000001E-2</v>
+        <v>3.6088000000000002E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>6.2633999999999995E-2</v>
+        <v>0.10473399999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>2.6273999999999999E-2</v>
+        <v>3.6247000000000001E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>6.1800000000000001E-2</v>
+        <v>9.8225000000000007E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>2.6556E-2</v>
+        <v>3.6621000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>6.0047999999999997E-2</v>
+        <v>9.1175999999999993E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>2.6702E-2</v>
+        <v>3.6461E-2</v>
       </c>
       <c r="K13" s="1">
-        <v>5.5439000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>7.8253000000000003E-2</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="B14" s="1">
-        <v>3.1518999999999998E-2</v>
+        <v>4.3431999999999998E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>7.5864000000000001E-2</v>
+        <v>0.120466</v>
       </c>
       <c r="D14" s="1">
-        <v>3.193E-2</v>
+        <v>4.3813999999999999E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>7.5935000000000002E-2</v>
+        <v>0.12874099999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>3.209E-2</v>
+        <v>5.0390999999999998E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>7.4836E-2</v>
+        <v>0.121863</v>
       </c>
       <c r="H14" s="1">
-        <v>3.2155999999999997E-2</v>
+        <v>4.4477000000000003E-2</v>
       </c>
       <c r="I14" s="1">
-        <v>7.3214000000000001E-2</v>
+        <v>0.111112</v>
       </c>
       <c r="J14" s="1">
-        <v>3.2044999999999997E-2</v>
+        <v>4.4979999999999999E-2</v>
       </c>
       <c r="K14" s="1">
-        <v>6.7366999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>9.6689999999999998E-2</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="B15" s="1">
-        <v>3.7728999999999999E-2</v>
+        <v>5.1982E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>9.0345999999999996E-2</v>
+        <v>0.14330100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>3.8573999999999997E-2</v>
+        <v>5.2352000000000003E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>9.0448000000000001E-2</v>
+        <v>0.15138099999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>3.8275999999999998E-2</v>
+        <v>5.3573999999999997E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>8.9688000000000004E-2</v>
+        <v>0.15376699999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>3.8317999999999998E-2</v>
+        <v>5.3248999999999998E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>8.7094000000000005E-2</v>
+        <v>0.13273499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>3.8492999999999999E-2</v>
+        <v>5.3163000000000002E-2</v>
       </c>
       <c r="K15" s="1">
-        <v>8.0458000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>0.11261699999999999</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="B16" s="1">
-        <v>4.4585E-2</v>
+        <v>6.1298999999999999E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>0.106087</v>
+        <v>0.16898199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>4.4717E-2</v>
+        <v>6.1939000000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.106623</v>
+        <v>0.17705000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>4.5002E-2</v>
+        <v>6.3355999999999996E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>0.104979</v>
+        <v>0.16777600000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>4.5419000000000001E-2</v>
+        <v>6.2728000000000006E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>0.102447</v>
+        <v>0.154589</v>
       </c>
       <c r="J16" s="1">
-        <v>4.5347999999999999E-2</v>
+        <v>6.3650999999999999E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>9.4485E-2</v>
+        <v>0.13319500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8781,34 +8823,34 @@
         <v>3000</v>
       </c>
       <c r="B17" s="1">
-        <v>5.253E-2</v>
+        <v>7.1620000000000003E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>0.124031</v>
+        <v>0.19536700000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>5.2610999999999998E-2</v>
+        <v>7.2241E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.123915</v>
+        <v>0.20521200000000001</v>
       </c>
       <c r="F17" s="1">
-        <v>5.2641E-2</v>
+        <v>7.3745000000000005E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>0.121682</v>
+        <v>0.19556299999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>5.339E-2</v>
+        <v>7.3566999999999994E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>0.118881</v>
+        <v>0.178033</v>
       </c>
       <c r="J17" s="1">
-        <v>5.3176000000000001E-2</v>
+        <v>7.3553999999999994E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>0.110291</v>
+        <v>0.15411</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8817,34 +8859,34 @@
         <v>3200</v>
       </c>
       <c r="B18" s="1">
-        <v>5.9888999999999998E-2</v>
+        <v>8.3396999999999999E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>0.14067499999999999</v>
+        <v>0.22350500000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>5.9995E-2</v>
+        <v>8.3636000000000002E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.14158100000000001</v>
+        <v>0.23577500000000001</v>
       </c>
       <c r="F18" s="1">
-        <v>6.0755000000000003E-2</v>
+        <v>8.4339999999999998E-2</v>
       </c>
       <c r="G18" s="1">
-        <v>0.14008200000000001</v>
+        <v>0.25959900000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>6.0804999999999998E-2</v>
+        <v>8.5196999999999995E-2</v>
       </c>
       <c r="I18" s="1">
-        <v>0.13766</v>
+        <v>0.20550599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>6.1081000000000003E-2</v>
+        <v>8.7928000000000006E-2</v>
       </c>
       <c r="K18" s="1">
-        <v>0.12785099999999999</v>
+        <v>0.18690599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8853,34 +8895,34 @@
         <v>3400</v>
       </c>
       <c r="B19" s="1">
-        <v>6.8453E-2</v>
+        <v>9.5156000000000004E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>0.16055700000000001</v>
+        <v>0.25622800000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>6.8760000000000002E-2</v>
+        <v>9.5921999999999993E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.16085199999999999</v>
+        <v>0.267988</v>
       </c>
       <c r="F19" s="1">
-        <v>6.9281999999999996E-2</v>
+        <v>9.9127999999999994E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>0.159331</v>
+        <v>0.25430399999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>6.9231000000000001E-2</v>
+        <v>9.7162999999999999E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>0.155558</v>
+        <v>0.234347</v>
       </c>
       <c r="J19" s="1">
-        <v>6.9757E-2</v>
+        <v>9.7463999999999995E-2</v>
       </c>
       <c r="K19" s="1">
-        <v>0.144458</v>
+        <v>0.20313300000000001</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8889,34 +8931,34 @@
         <v>3600</v>
       </c>
       <c r="B20" s="1">
-        <v>7.7466999999999994E-2</v>
+        <v>0.10845</v>
       </c>
       <c r="C20" s="1">
-        <v>0.18090600000000001</v>
+        <v>0.29241699999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>7.7804999999999999E-2</v>
+        <v>0.10950500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.18218000000000001</v>
+        <v>0.30201600000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>7.8802999999999998E-2</v>
+        <v>0.110335</v>
       </c>
       <c r="G20" s="1">
-        <v>0.17934700000000001</v>
+        <v>0.29503099999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>7.8828999999999996E-2</v>
+        <v>0.11222</v>
       </c>
       <c r="I20" s="1">
-        <v>0.17574000000000001</v>
+        <v>0.27703800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>7.9334000000000002E-2</v>
+        <v>0.111405</v>
       </c>
       <c r="K20" s="1">
-        <v>0.16510900000000001</v>
+        <v>0.22789599999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8925,34 +8967,34 @@
         <v>3800</v>
       </c>
       <c r="B21" s="1">
-        <v>8.6739999999999998E-2</v>
+        <v>0.122346</v>
       </c>
       <c r="C21" s="1">
-        <v>0.20285300000000001</v>
+        <v>0.32511299999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>8.7846999999999995E-2</v>
+        <v>0.123558</v>
       </c>
       <c r="E21" s="1">
-        <v>0.20243800000000001</v>
+        <v>0.34028000000000003</v>
       </c>
       <c r="F21" s="1">
-        <v>8.8248999999999994E-2</v>
+        <v>0.12815699999999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.20019999999999999</v>
+        <v>0.36471700000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>8.8711999999999999E-2</v>
+        <v>0.13002</v>
       </c>
       <c r="I21" s="1">
-        <v>0.196016</v>
+        <v>0.31351499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>8.8758000000000004E-2</v>
+        <v>0.126584</v>
       </c>
       <c r="K21" s="1">
-        <v>0.183532</v>
+        <v>0.256886</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8961,98 +9003,524 @@
         <v>4000</v>
       </c>
       <c r="B22" s="1">
-        <v>9.6918000000000004E-2</v>
+        <v>0.13867399999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.22547800000000001</v>
+        <v>0.36317700000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>9.7747000000000001E-2</v>
+        <v>0.13932600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.23206099999999999</v>
+        <v>0.37723699999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>9.7987000000000005E-2</v>
+        <v>0.14510500000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.217394</v>
+        <v>0.36584</v>
       </c>
       <c r="H22" s="1">
-        <v>9.8541000000000004E-2</v>
+        <v>0.14222099999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>0.19983300000000001</v>
+        <v>0.33253300000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>9.9318000000000004E-2</v>
+        <v>0.14158499999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>0.17300499999999999</v>
+        <v>0.28352699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N26" s="1">
+        <v>0.14348</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.36096299999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N27" s="1">
+        <v>0.15925</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.41607</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P28" s="4"/>
+      <c r="N28" s="1">
+        <v>0.17818999999999999</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.45431300000000002</v>
+      </c>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P29" s="4"/>
+      <c r="N29" s="1">
+        <v>0.19994500000000001</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.50465700000000002</v>
+      </c>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P30" s="4"/>
+      <c r="N30" s="1">
+        <v>0.220527</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.55822300000000002</v>
+      </c>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P31" s="4"/>
+      <c r="N31" s="1">
+        <v>0.244924</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.61022299999999996</v>
+      </c>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P47" s="4"/>
+      <c r="N32" s="1">
+        <v>0.26701000000000003</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.66588499999999995</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N33" s="1">
+        <v>0.29008499999999998</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.72476200000000002</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N34" s="1">
+        <v>0.317388</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.788995</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N35" s="1">
+        <v>0.344225</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.85274300000000003</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N36" s="1">
+        <v>0.37059300000000001</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.91947299999999998</v>
+      </c>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N38" s="1">
+        <v>0.14651500000000001</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.38476199999999999</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N39" s="1">
+        <v>0.16389699999999999</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.423433</v>
+      </c>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N40" s="1">
+        <v>0.17909</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.47237000000000001</v>
+      </c>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N41" s="1">
+        <v>0.19886499999999999</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.52192799999999995</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N42" s="1">
+        <v>0.21914900000000001</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.57533800000000002</v>
+      </c>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N43" s="1">
+        <v>0.242121</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.63816899999999999</v>
+      </c>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N44" s="1">
+        <v>0.326405</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.68771700000000002</v>
+      </c>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N45" s="1">
+        <v>0.293018</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.73973699999999998</v>
+      </c>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N46" s="1">
+        <v>0.320052</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.80922400000000005</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N47" s="1">
+        <v>0.34369499999999997</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.86548499999999995</v>
+      </c>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="14:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N48" s="1">
+        <v>0.37206800000000001</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.93661099999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N50" s="1">
+        <v>0.14693600000000001</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.364479</v>
+      </c>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N51" s="1">
+        <v>0.16577800000000001</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.39681</v>
+      </c>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N52" s="1">
+        <v>0.18443100000000001</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.44147799999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N53" s="1">
+        <v>0.20438799999999999</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.48889700000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N54" s="1">
+        <v>0.22651399999999999</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.53690000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N55" s="1">
+        <v>0.24813399999999999</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.586426</v>
+      </c>
+    </row>
+    <row r="56" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N56" s="1">
+        <v>0.27271800000000002</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.64016200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N57" s="1">
+        <v>0.296153</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.69698700000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N58" s="1">
+        <v>0.32544899999999999</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.75214999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N59" s="1">
+        <v>0.34912900000000002</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.81225400000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N60" s="1">
+        <v>0.37545499999999998</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0.87400999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N62" s="1">
+        <v>0.148142</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.33201000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N63" s="1">
+        <v>0.165737</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.36475400000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N64" s="1">
+        <v>0.19029699999999999</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.40659200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N65" s="1">
+        <v>0.206178</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0.45174300000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N66" s="1">
+        <v>0.22791700000000001</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0.496894</v>
+      </c>
+    </row>
+    <row r="67" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N67" s="1">
+        <v>0.25129099999999999</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0.54199399999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N68" s="1">
+        <v>0.273343</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.59726100000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N69" s="1">
+        <v>0.29266300000000001</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0.64127100000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N70" s="1">
+        <v>0.31692900000000002</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0.80818400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N71" s="1">
+        <v>0.37176500000000001</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0.80840400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N72" s="1">
+        <v>0.36516700000000002</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0.82933500000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N74" s="1">
+        <v>0.14640300000000001</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0.30193500000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N75" s="1">
+        <v>0.16289799999999999</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.32373600000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N76" s="1">
+        <v>0.18782199999999999</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0.352354</v>
+      </c>
+    </row>
+    <row r="77" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N77" s="1">
+        <v>0.20228499999999999</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0.390102</v>
+      </c>
+    </row>
+    <row r="78" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N78" s="1">
+        <v>0.22323000000000001</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0.43582500000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N79" s="1">
+        <v>0.24609200000000001</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0.47254000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N80" s="1">
+        <v>0.26971800000000001</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0.51329899999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N81" s="1">
+        <v>0.29268499999999997</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0.56237899999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N82" s="1">
+        <v>0.31467299999999998</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0.64422699999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N83" s="1">
+        <v>0.33882800000000002</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0.66002300000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="14:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N84" s="1">
+        <v>0.369944</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0.70802399999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="O12:Q15"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -9066,336 +9534,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6694CBE4-9FCA-A948-8BD9-A1EFA0946E15}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7623078-2194-B948-8E88-92A65452FD66}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>9.9318000000000004E-2</v>
-      </c>
-      <c r="B1">
-        <v>0.17300499999999999</v>
-      </c>
-      <c r="C1" cm="1">
-        <f t="array" ref="C1">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D1" cm="1">
-        <f t="array" ref="D1">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>3.68E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8.8758000000000004E-2</v>
-      </c>
-      <c r="B2">
-        <v>0.183532</v>
-      </c>
-      <c r="C2" cm="1">
-        <f t="array" ref="C2">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>7.27E-4</v>
-      </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>1.4710000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7.9334000000000002E-2</v>
-      </c>
-      <c r="B3">
-        <v>0.16510900000000001</v>
-      </c>
-      <c r="C3" cm="1">
-        <f t="array" ref="C3">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>1.601E-3</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>3.4139999999999999E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>6.9757E-2</v>
-      </c>
-      <c r="B4">
-        <v>0.144458</v>
-      </c>
-      <c r="C4" cm="1">
-        <f t="array" ref="C4">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>2.8579999999999999E-3</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>6.1980000000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6.1081000000000003E-2</v>
-      </c>
-      <c r="B5">
-        <v>0.12785099999999999</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" ref="C5">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>4.6010000000000001E-3</v>
-      </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>9.8189999999999996E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5.3176000000000001E-2</v>
-      </c>
-      <c r="B6">
-        <v>0.110291</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>6.8539999999999998E-3</v>
-      </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>1.4883E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4.5347999999999999E-2</v>
-      </c>
-      <c r="B7">
-        <v>9.4485E-2</v>
-      </c>
-      <c r="C7" cm="1">
-        <f t="array" ref="C7">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>9.5289999999999993E-3</v>
-      </c>
-      <c r="D7" cm="1">
-        <f t="array" ref="D7">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>2.0697E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3.8492999999999999E-2</v>
-      </c>
-      <c r="B8">
-        <v>8.0458000000000002E-2</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>1.3024000000000001E-2</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>2.7591999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3.2044999999999997E-2</v>
-      </c>
-      <c r="B9">
-        <v>6.7366999999999996E-2</v>
-      </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>1.6816999999999999E-2</v>
-      </c>
-      <c r="D9" cm="1">
-        <f t="array" ref="D9">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>3.5358000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2.6702E-2</v>
-      </c>
-      <c r="B10">
-        <v>5.5439000000000002E-2</v>
-      </c>
-      <c r="C10" cm="1">
-        <f t="array" ref="C10">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>2.1422E-2</v>
-      </c>
-      <c r="D10" cm="1">
-        <f t="array" ref="D10">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>4.4344000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2.1422E-2</v>
-      </c>
-      <c r="B11">
-        <v>4.4344000000000001E-2</v>
-      </c>
-      <c r="C11" cm="1">
-        <f t="array" ref="C11">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>2.6702E-2</v>
-      </c>
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>5.5439000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1.6816999999999999E-2</v>
-      </c>
-      <c r="B12">
-        <v>3.5358000000000001E-2</v>
-      </c>
-      <c r="C12" cm="1">
-        <f t="array" ref="C12">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>3.2044999999999997E-2</v>
-      </c>
-      <c r="D12" cm="1">
-        <f t="array" ref="D12">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>6.7366999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1.3024000000000001E-2</v>
-      </c>
-      <c r="B13">
-        <v>2.7591999999999998E-2</v>
-      </c>
-      <c r="C13" cm="1">
-        <f t="array" ref="C13">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>3.8492999999999999E-2</v>
-      </c>
-      <c r="D13" cm="1">
-        <f t="array" ref="D13">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>8.0458000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>9.5289999999999993E-3</v>
-      </c>
-      <c r="B14">
-        <v>2.0697E-2</v>
-      </c>
-      <c r="C14" cm="1">
-        <f t="array" ref="C14">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>4.5347999999999999E-2</v>
-      </c>
-      <c r="D14" cm="1">
-        <f t="array" ref="D14">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>9.4485E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>6.8539999999999998E-3</v>
-      </c>
-      <c r="B15">
-        <v>1.4883E-2</v>
-      </c>
-      <c r="C15" cm="1">
-        <f t="array" ref="C15">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>5.3176000000000001E-2</v>
-      </c>
-      <c r="D15" cm="1">
-        <f t="array" ref="D15">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>0.110291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4.6010000000000001E-3</v>
-      </c>
-      <c r="B16">
-        <v>9.8189999999999996E-3</v>
-      </c>
-      <c r="C16" cm="1">
-        <f t="array" ref="C16">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>6.1081000000000003E-2</v>
-      </c>
-      <c r="D16" cm="1">
-        <f t="array" ref="D16">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>0.12785099999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2.8579999999999999E-3</v>
-      </c>
-      <c r="B17">
-        <v>6.1980000000000004E-3</v>
-      </c>
-      <c r="C17" cm="1">
-        <f t="array" ref="C17">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>6.9757E-2</v>
-      </c>
-      <c r="D17" cm="1">
-        <f t="array" ref="D17">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>0.144458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1.601E-3</v>
-      </c>
-      <c r="B18">
-        <v>3.4139999999999999E-3</v>
-      </c>
-      <c r="C18" cm="1">
-        <f t="array" ref="C18">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>7.9334000000000002E-2</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>0.16510900000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>7.27E-4</v>
-      </c>
-      <c r="B19">
-        <v>1.4710000000000001E-3</v>
-      </c>
-      <c r="C19" cm="1">
-        <f t="array" ref="C19">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>8.8758000000000004E-2</v>
-      </c>
-      <c r="D19" cm="1">
-        <f t="array" ref="D19">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>0.183532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="B20">
-        <v>3.68E-4</v>
-      </c>
-      <c r="C20" cm="1">
-        <f t="array" ref="C20">INDEX(A$1:A$20,COUNT(A$1:A$20)+1-ROW())</f>
-        <v>9.9318000000000004E-2</v>
-      </c>
-      <c r="D20" cm="1">
-        <f t="array" ref="D20">INDEX(B$1:B$20,COUNT(B$1:B$20)+1-ROW())</f>
-        <v>0.17300499999999999</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.8653999999999999E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8.3752999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.2502999999999999E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.4433E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.1031999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.2744999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.0795000000000001E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7.2610000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.1177999999999999E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.0939999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.0823000000000001E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.0990000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.1003000000000001E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.0990000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2.0759E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.5360000000000001E-3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.0693E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.1222000000000001E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.8829999999999999E-3</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.1287E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.6559999999999999E-3</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.1212999999999999E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.0840999999999998E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.3810000000000001E-3</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.1080000000000002E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.2390000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.0715000000000001E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.1460000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.0649000000000001E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.0610000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2.1416000000000001E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9.8900000000000008E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2.0712000000000001E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9.3800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.1357999999999999E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8.7299999999999997E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.0688999999999999E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8.2600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.1099E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7.9000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F9:J14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeelongsiah/Desktop/School/NTU/SC2001/Dijkstra's Alg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24383969-12D1-9B46-8F52-BB52EDC0FC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A08DA-4963-4848-AD69-35143FEA9EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{8A83C292-6E76-F249-AC67-58BE18C7F3DB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>runtime (matrix)</t>
   </si>
@@ -74,12 +74,18 @@
   <si>
     <t>this sheet compares the runtimes with respect to the size of graph and also the connectedness</t>
   </si>
+  <si>
+    <t>results from V=4000 to V=6000</t>
+  </si>
+  <si>
+    <t>results from V=6000 to V=7000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,12 +99,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Monaco"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -138,18 +138,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,6 +699,1817 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>2% connected graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$R$3:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.94E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.591E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.787E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4190000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5230000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9700000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1872000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5254999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9288E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3845000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8832E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4410999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1387E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7371999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4907999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2793000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1486999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0951999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0528999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-141C-D04A-A396-103EF88B2528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$S$3:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3270000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.291E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5209999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1549999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.476E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2300000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2426E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6226999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0419E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5718000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1830999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6939000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3331999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1752000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1420999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0338999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0386999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.101882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-141C-D04A-A396-103EF88B2528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192770208"/>
+        <c:axId val="192766768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192770208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192766768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192766768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192770208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>1% connected graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$T$3:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1699999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6019999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3829999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4790000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9269999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1865000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.529E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3741000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8844999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4491000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7567999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4876000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2751000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1537000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0752000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0815999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F50-334E-B58C-B86D7FF6E7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$U$3:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2110000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.77E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8220000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9759999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7549999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8669999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4839999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2292000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5559999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9904999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4892000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1033999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6332999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2215000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8552999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6797E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3672999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1920999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1115000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F50-334E-B58C-B86D7FF6E7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192770208"/>
+        <c:axId val="192766768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192770208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192766768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192766768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192770208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of partitions vs runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'results for disjoint graph'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'results for disjoint graph'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.8653999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2502999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1031999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0795000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1177999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0823000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1003000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0759E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0693E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1222000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1287E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1212999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0840999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1080000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0715000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0649000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1416000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0712000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1357999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0688999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC23-F34D-8CC1-E6FC20211715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'results for disjoint graph'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'results for disjoint graph'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.3752999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4433E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2744999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2610000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0939999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0990000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0990000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5360000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8829999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6559999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3810000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1460000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0610000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8900000000000008E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3800000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7299999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC23-F34D-8CC1-E6FC20211715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="466083792"/>
+        <c:axId val="466306480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466083792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466306480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466306480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466083792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4925,7 +6738,1881 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>5% connected graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.6500000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5699999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.578E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7889999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4419999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3639999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8020000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1750999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5183E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9203999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3642E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8732000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4389999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7440999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4764E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2827999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5315999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3044999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1485999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A2A-C243-825C-B4FC9EABDF01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$M$3:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.43E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8760000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8210000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6740000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7950000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2397999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6629000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1441999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6967999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4098999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1877999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0555000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9572E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9649000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9778000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1271000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.112318</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11745</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.135662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A2A-C243-825C-B4FC9EABDF01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192770208"/>
+        <c:axId val="192766768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192770208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192766768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192766768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192770208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>4% connected graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2499999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5759999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7950000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1929999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8329999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8529999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1941E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5805E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1252E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4996999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8691999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7631999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6728000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8231999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5121999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3218999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1805000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0670000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F462-F148-AD52-72183CC5078B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$O$3:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5020000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0699999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.817E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.382E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.47E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5649999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2252000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5713000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3186999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7019000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2733999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2729999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4503999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0879999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5841999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5731999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7080000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9238000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11121399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F462-F148-AD52-72183CC5078B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192770208"/>
+        <c:axId val="192766768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192770208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192766768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192766768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192770208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>3% connected graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$P$3:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2099999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5809999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7829999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3680000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1838E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5251000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9203000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3848999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8881E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4334999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0663999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7830999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4865999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2834000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1675000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1536999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1024999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D28F-BF49-9642-FAF702795FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$Q$3:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.382E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.557E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.954E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7540000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0564E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4256E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8473E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3224999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9288000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6170000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3775000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1903999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0657999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9939000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0195000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0812000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.115773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D28F-BF49-9642-FAF702795FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192770208"/>
+        <c:axId val="192766768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192770208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192766768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192766768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192770208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5125,6 +8812,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5641,7 +9488,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6157,8 +10004,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6266,11 +10113,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6281,11 +10123,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6317,9 +10154,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6673,7 +10507,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7189,8 +11023,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7298,6 +11132,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7308,6 +11147,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7339,6 +11183,3092 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7918,6 +14848,237 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2762251</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0419B858-7AFD-4E4C-999F-8695AC846ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2794001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>589393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64E3356-7099-5A46-8354-0BE9B6FD795C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2762251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>557643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277B5924-3754-B74C-8000-32C29EBC77EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2889251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>557643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6E6DC1-AB00-FC41-9EB0-600BAC61147B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2762251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>557643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD79452-C133-3445-9EA0-F641D34E9600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D03BDC-205C-94C1-F53E-D5A2D0B41988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8218,13 +15379,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C20B9EC-4AA2-AE46-8826-2B4D3F091796}">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="47" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="47"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -8235,40 +15396,58 @@
     <col min="7" max="7" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="11" width="43.83203125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="43.83203125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="43.83203125" customWidth="1"/>
+    <col min="20" max="32" width="43.83203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="3">
+    <row r="1" spans="1:23">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>0.8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>0.6</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>0.4</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>0.2</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8299,8 +15478,38 @@
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -8334,8 +15543,38 @@
       <c r="K3" s="1">
         <v>3.7699999999999999E-3</v>
       </c>
+      <c r="L3" s="1">
+        <v>4.6500000000000003E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.43E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.5020000000000001E-3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.382E-3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1.94E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.3270000000000001E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1.2110000000000001E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <f>A3+200</f>
         <v>400</v>
@@ -8370,10 +15609,40 @@
       <c r="K4" s="1">
         <v>1.9780000000000002E-3</v>
       </c>
+      <c r="L4" s="1">
+        <v>7.5699999999999997E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>7.0699999999999995E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7.2099999999999996E-4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>7.2300000000000001E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>7.1699999999999997E-4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3.77E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A22" si="0">A4+200</f>
+        <f t="shared" ref="A5:A39" si="0">A4+200</f>
         <v>600</v>
       </c>
       <c r="B5" s="1">
@@ -8406,8 +15675,38 @@
       <c r="K5" s="1">
         <v>4.5859999999999998E-3</v>
       </c>
+      <c r="L5" s="1">
+        <v>1.578E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.8760000000000001E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.5759999999999999E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.817E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.5809999999999999E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.557E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.591E-3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.291E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.6019999999999999E-3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>9.0499999999999999E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -8442,8 +15741,38 @@
       <c r="K6" s="1">
         <v>9.4699999999999993E-3</v>
       </c>
+      <c r="L6" s="1">
+        <v>2.7889999999999998E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.8210000000000002E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.7950000000000002E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.382E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.7829999999999999E-3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.954E-3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2.787E-3</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2.5209999999999998E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2.8149999999999998E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.8220000000000001E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -8478,8 +15807,38 @@
       <c r="K7" s="1">
         <v>1.3538E-2</v>
       </c>
+      <c r="L7" s="1">
+        <v>4.4419999999999998E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5.6740000000000002E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5.1929999999999997E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5.47E-3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.3680000000000004E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.7540000000000004E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4.4190000000000002E-3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.1549999999999998E-3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4.3829999999999997E-3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2.9759999999999999E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -8514,8 +15873,38 @@
       <c r="K8" s="1">
         <v>2.0559000000000001E-2</v>
       </c>
+      <c r="L8" s="1">
+        <v>6.3639999999999999E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>8.7950000000000007E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7.8329999999999997E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>8.5649999999999997E-3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6.3699999999999998E-3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>7.4570000000000001E-3</v>
+      </c>
+      <c r="R8" s="1">
+        <v>6.5230000000000002E-3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6.476E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>6.4790000000000004E-3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4.7549999999999997E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -8550,8 +15939,38 @@
       <c r="K9" s="1">
         <v>2.9621999999999999E-2</v>
       </c>
+      <c r="L9" s="1">
+        <v>8.8020000000000008E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.2397999999999999E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>8.8529999999999998E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.2252000000000001E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8.8409999999999999E-3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.0564E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>8.9269999999999992E-3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>6.8669999999999998E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -8586,8 +16005,38 @@
       <c r="K10" s="1">
         <v>3.8705000000000003E-2</v>
       </c>
+      <c r="L10" s="1">
+        <v>1.1750999999999999E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.6629000000000001E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.1941E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.5713000000000001E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.1838E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.4256E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.1872000000000001E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.2426E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.1865000000000001E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>9.4839999999999994E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -8622,8 +16071,38 @@
       <c r="K11" s="1">
         <v>4.9577999999999997E-2</v>
       </c>
+      <c r="L11" s="1">
+        <v>1.5183E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.1441999999999999E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.5805E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.3186999999999999E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.5251000000000001E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.8473E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.5254999999999999E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1.6226999999999998E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1.529E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.2292000000000001E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -8658,13 +16137,38 @@
       <c r="K12" s="1">
         <v>6.3747999999999999E-2</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="L12" s="1">
+        <v>1.9203999999999999E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.6967999999999999E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.1252E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.7019000000000001E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.9203000000000001E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2.3224999999999999E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.9288E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2.0419E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.5559999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2200</v>
@@ -8699,11 +16203,38 @@
       <c r="K13" s="1">
         <v>7.8253000000000003E-2</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="L13" s="1">
+        <v>2.3642E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.4098999999999997E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.4996999999999998E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.2733999999999999E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.3848999999999999E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.9288000000000002E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.3845000000000002E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.5718000000000001E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2.3741000000000002E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.9904999999999999E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2400</v>
@@ -8738,11 +16269,38 @@
       <c r="K14" s="1">
         <v>9.6689999999999998E-2</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="L14" s="1">
+        <v>2.8732000000000001E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.1877999999999999E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.8691999999999999E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.2729999999999997E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.8881E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.6170000000000001E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.8832E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3.1830999999999998E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2.8844999999999999E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.4892000000000001E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2600</v>
@@ -8777,11 +16335,38 @@
       <c r="K15" s="1">
         <v>0.11261699999999999</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="L15" s="1">
+        <v>3.4389999999999997E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5.0555000000000003E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3.7631999999999999E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5.4503999999999997E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.4334999999999997E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4.3775000000000001E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3.4410999999999997E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3.8890000000000001E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3.4491000000000001E-2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3.1033999999999999E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2800</v>
@@ -8816,8 +16401,38 @@
       <c r="K16" s="1">
         <v>0.13319500000000001</v>
       </c>
+      <c r="L16" s="1">
+        <v>4.0680000000000001E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5.9572E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7.6728000000000005E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>8.0879999999999994E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.0663999999999999E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5.1903999999999999E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4.1387E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4.6939000000000002E-2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>3.6332999999999997E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -8852,8 +16467,38 @@
       <c r="K17" s="1">
         <v>0.15411</v>
       </c>
+      <c r="L17" s="1">
+        <v>4.7440999999999997E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6.9649000000000003E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4.8231999999999997E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>6.5841999999999998E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4.7830999999999999E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>6.0657999999999997E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4.7371999999999997E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5.3331999999999997E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4.7567999999999999E-2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4.2215000000000003E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>3200</v>
@@ -8888,8 +16533,38 @@
       <c r="K18" s="1">
         <v>0.18690599999999999</v>
       </c>
+      <c r="L18" s="1">
+        <v>5.4764E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7.9778000000000002E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5.5121999999999997E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>7.5731999999999994E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5.4865999999999998E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>6.9939000000000001E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>5.4907999999999998E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>6.1752000000000001E-2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5.4876000000000001E-2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4.8552999999999999E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>3400</v>
@@ -8924,8 +16599,38 @@
       <c r="K19" s="1">
         <v>0.20313300000000001</v>
       </c>
+      <c r="L19" s="1">
+        <v>6.2827999999999995E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9.1271000000000005E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6.3218999999999997E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>8.7080000000000005E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>6.2834000000000001E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>8.0195000000000002E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6.2793000000000002E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.1420999999999998E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>6.2751000000000001E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>5.6797E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3600</v>
@@ -8960,8 +16665,38 @@
       <c r="K20" s="1">
         <v>0.22789599999999999</v>
       </c>
+      <c r="L20" s="1">
+        <v>7.5315999999999994E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.112318</v>
+      </c>
+      <c r="N20" s="1">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>9.9238000000000007E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>7.1675000000000003E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>9.0812000000000004E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>7.1486999999999995E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>8.0338999999999994E-2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>7.1537000000000003E-2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>6.3672999999999993E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>3800</v>
@@ -8996,8 +16731,38 @@
       <c r="K21" s="1">
         <v>0.256886</v>
       </c>
+      <c r="L21" s="1">
+        <v>8.3044999999999994E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.11745</v>
+      </c>
+      <c r="N21" s="1">
+        <v>8.1805000000000003E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.11121399999999999</v>
+      </c>
+      <c r="P21" s="1">
+        <v>8.1536999999999998E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.1028</v>
+      </c>
+      <c r="R21" s="1">
+        <v>8.0951999999999996E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>9.0386999999999995E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>8.0752000000000004E-2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>7.1920999999999999E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>4000</v>
@@ -9032,501 +16797,949 @@
       <c r="K22" s="1">
         <v>0.28352699999999997</v>
       </c>
+      <c r="L22" s="1">
+        <v>9.1485999999999998E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.135662</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9.0670000000000001E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.12522</v>
+      </c>
+      <c r="P22" s="1">
+        <v>9.1024999999999995E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.115773</v>
+      </c>
+      <c r="R22" s="1">
+        <v>9.0528999999999998E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.101882</v>
+      </c>
+      <c r="T22" s="1">
+        <v>9.0815999999999994E-2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>8.1115000000000007E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N25" s="1" t="s">
+    <row r="25" spans="1:21">
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N26" s="1">
+    <row r="57" spans="3:8">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7">
         <v>0.14348</v>
       </c>
-      <c r="O26" s="1">
+      <c r="E57" s="7">
         <v>0.36096299999999998</v>
       </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7">
+        <v>0.35458400000000001</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.90989399999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N27" s="1">
+    <row r="58" spans="3:8">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7">
         <v>0.15925</v>
       </c>
-      <c r="O27" s="1">
+      <c r="E58" s="7">
         <v>0.41607</v>
       </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7">
+        <v>0.392876</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.98537200000000003</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N28" s="1">
+    <row r="59" spans="3:8">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7">
         <v>0.17818999999999999</v>
       </c>
-      <c r="O28" s="1">
+      <c r="E59" s="7">
         <v>0.45431300000000002</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7">
+        <v>0.42042600000000002</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1.06596</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N29" s="1">
+    <row r="60" spans="3:8">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7">
         <v>0.19994500000000001</v>
       </c>
-      <c r="O29" s="1">
+      <c r="E60" s="7">
         <v>0.50465700000000002</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7">
+        <v>0.45450299999999999</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1.139864</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N30" s="1">
+    <row r="61" spans="3:8">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7">
         <v>0.220527</v>
       </c>
-      <c r="O30" s="1">
+      <c r="E61" s="7">
         <v>0.55822300000000002</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7">
+        <v>0.48921999999999999</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1.2165900000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N31" s="1">
+    <row r="62" spans="3:8">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7">
         <v>0.244924</v>
       </c>
-      <c r="O31" s="1">
+      <c r="E62" s="7">
         <v>0.61022299999999996</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7">
+        <v>0.51994700000000005</v>
+      </c>
+      <c r="H62" s="7">
+        <v>1.310902</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N32" s="1">
+    <row r="63" spans="3:8">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7">
         <v>0.26701000000000003</v>
       </c>
-      <c r="O32" s="1">
+      <c r="E63" s="7">
         <v>0.66588499999999995</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="7"/>
     </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N33" s="1">
+    <row r="64" spans="3:8">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7">
         <v>0.29008499999999998</v>
       </c>
-      <c r="O33" s="1">
+      <c r="E64" s="7">
         <v>0.72476200000000002</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7">
+        <v>0.36982100000000001</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0.95696499999999995</v>
+      </c>
     </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N34" s="1">
+    <row r="65" spans="3:8">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7">
         <v>0.317388</v>
       </c>
-      <c r="O34" s="1">
+      <c r="E65" s="7">
         <v>0.788995</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7">
+        <v>0.397484</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1.000964</v>
+      </c>
     </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N35" s="1">
+    <row r="66" spans="3:8">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7">
         <v>0.344225</v>
       </c>
-      <c r="O35" s="1">
+      <c r="E66" s="7">
         <v>0.85274300000000003</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7">
+        <v>0.42614800000000003</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1.0664960000000001</v>
+      </c>
     </row>
-    <row r="36" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N36" s="1">
+    <row r="67" spans="3:8">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7">
         <v>0.37059300000000001</v>
       </c>
-      <c r="O36" s="1">
+      <c r="E67" s="7">
         <v>0.91947299999999998</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7">
+        <v>0.46109600000000001</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1.1387640000000001</v>
+      </c>
     </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N37" s="1" t="s">
+    <row r="68" spans="3:8">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7">
+        <v>0.49199799999999999</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1.214129</v>
+      </c>
     </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N38" s="1">
+    <row r="69" spans="3:8">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7">
         <v>0.14651500000000001</v>
       </c>
-      <c r="O38" s="1">
+      <c r="E69" s="7">
         <v>0.38476199999999999</v>
       </c>
-      <c r="P38" s="2"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7">
+        <v>0.52045300000000005</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1.3863760000000001</v>
+      </c>
     </row>
-    <row r="39" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N39" s="1">
+    <row r="70" spans="3:8">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7">
         <v>0.16389699999999999</v>
       </c>
-      <c r="O39" s="1">
+      <c r="E70" s="7">
         <v>0.423433</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="7"/>
     </row>
-    <row r="40" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N40" s="1">
+    <row r="71" spans="3:8">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7">
         <v>0.17909</v>
       </c>
-      <c r="O40" s="1">
+      <c r="E71" s="7">
         <v>0.47237000000000001</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7">
+        <v>0.36776300000000001</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0.912547</v>
+      </c>
     </row>
-    <row r="41" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N41" s="1">
+    <row r="72" spans="3:8">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7">
         <v>0.19886499999999999</v>
       </c>
-      <c r="O41" s="1">
+      <c r="E72" s="7">
         <v>0.52192799999999995</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7">
+        <v>0.40051900000000001</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.99871100000000002</v>
+      </c>
     </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N42" s="1">
+    <row r="73" spans="3:8">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7">
         <v>0.21914900000000001</v>
       </c>
-      <c r="O42" s="1">
+      <c r="E73" s="7">
         <v>0.57533800000000002</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7">
+        <v>0.43451899999999999</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1.0066250000000001</v>
+      </c>
     </row>
-    <row r="43" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N43" s="1">
+    <row r="74" spans="3:8">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7">
         <v>0.242121</v>
       </c>
-      <c r="O43" s="1">
+      <c r="E74" s="7">
         <v>0.63816899999999999</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7">
+        <v>0.46414</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1.0740670000000001</v>
+      </c>
     </row>
-    <row r="44" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N44" s="1">
+    <row r="75" spans="3:8">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7">
         <v>0.326405</v>
       </c>
-      <c r="O44" s="1">
+      <c r="E75" s="7">
         <v>0.68771700000000002</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7">
+        <v>0.497643</v>
+      </c>
+      <c r="H75" s="7">
+        <v>1.2994939999999999</v>
+      </c>
     </row>
-    <row r="45" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N45" s="1">
+    <row r="76" spans="3:8">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7">
         <v>0.293018</v>
       </c>
-      <c r="O45" s="1">
+      <c r="E76" s="7">
         <v>0.73973699999999998</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7">
+        <v>0.54237000000000002</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1.224828</v>
+      </c>
     </row>
-    <row r="46" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N46" s="1">
+    <row r="77" spans="3:8">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7">
         <v>0.320052</v>
       </c>
-      <c r="O46" s="1">
+      <c r="E77" s="7">
         <v>0.80922400000000005</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="7"/>
     </row>
-    <row r="47" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N47" s="1">
+    <row r="78" spans="3:8">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7">
         <v>0.34369499999999997</v>
       </c>
-      <c r="O47" s="1">
+      <c r="E78" s="7">
         <v>0.86548499999999995</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7">
+        <v>0.38773400000000002</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0.81385399999999997</v>
+      </c>
     </row>
-    <row r="48" spans="14:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="N48" s="1">
+    <row r="79" spans="3:8">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7">
         <v>0.37206800000000001</v>
       </c>
-      <c r="O48" s="1">
+      <c r="E79" s="7">
         <v>0.93661099999999997</v>
       </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7">
+        <v>0.40659299999999998</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0.86788799999999999</v>
+      </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N49" s="1" t="s">
+    <row r="80" spans="3:8">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7">
+        <v>0.44289299999999998</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0.92518500000000004</v>
+      </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N50" s="1">
+    <row r="81" spans="3:8">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7">
         <v>0.14693600000000001</v>
       </c>
-      <c r="O50" s="1">
+      <c r="E81" s="7">
         <v>0.364479</v>
       </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7">
+        <v>0.47003499999999998</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0.99759900000000001</v>
+      </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N51" s="1">
+    <row r="82" spans="3:8">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7">
         <v>0.16577800000000001</v>
       </c>
-      <c r="O51" s="1">
+      <c r="E82" s="7">
         <v>0.39681</v>
       </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7">
+        <v>0.50515900000000002</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1.0538989999999999</v>
+      </c>
     </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N52" s="1">
+    <row r="83" spans="3:8">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7">
         <v>0.18443100000000001</v>
       </c>
-      <c r="O52" s="1">
+      <c r="E83" s="7">
         <v>0.44147799999999998</v>
       </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7">
+        <v>0.53899799999999998</v>
+      </c>
+      <c r="H83" s="7">
+        <v>1.1230150000000001</v>
+      </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N53" s="1">
+    <row r="84" spans="3:8">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7">
         <v>0.20438799999999999</v>
       </c>
-      <c r="O53" s="1">
+      <c r="E84" s="7">
         <v>0.48889700000000003</v>
       </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="7"/>
     </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N54" s="1">
+    <row r="85" spans="3:8">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7">
         <v>0.22651399999999999</v>
       </c>
-      <c r="O54" s="1">
+      <c r="E85" s="7">
         <v>0.53690000000000004</v>
       </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7">
+        <v>0.38480999999999999</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0.70749700000000004</v>
+      </c>
     </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N55" s="1">
+    <row r="86" spans="3:8">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7">
         <v>0.24813399999999999</v>
       </c>
-      <c r="O55" s="1">
+      <c r="E86" s="7">
         <v>0.586426</v>
       </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7">
+        <v>0.41434399999999999</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0.755463</v>
+      </c>
     </row>
-    <row r="56" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N56" s="1">
+    <row r="87" spans="3:8">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7">
         <v>0.27271800000000002</v>
       </c>
-      <c r="O56" s="1">
+      <c r="E87" s="7">
         <v>0.64016200000000001</v>
       </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7">
+        <v>0.445884</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0.80748500000000001</v>
+      </c>
     </row>
-    <row r="57" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N57" s="1">
+    <row r="88" spans="3:8">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7">
         <v>0.296153</v>
       </c>
-      <c r="O57" s="1">
+      <c r="E88" s="7">
         <v>0.69698700000000002</v>
       </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7">
+        <v>0.47498099999999999</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0.86903799999999998</v>
+      </c>
     </row>
-    <row r="58" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N58" s="1">
+    <row r="89" spans="3:8">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7">
         <v>0.32544899999999999</v>
       </c>
-      <c r="O58" s="1">
+      <c r="E89" s="7">
         <v>0.75214999999999999</v>
       </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7">
+        <v>0.48132200000000003</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0.92292600000000002</v>
+      </c>
     </row>
-    <row r="59" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N59" s="1">
+    <row r="90" spans="3:8">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7">
         <v>0.34912900000000002</v>
       </c>
-      <c r="O59" s="1">
+      <c r="E90" s="7">
         <v>0.81225400000000003</v>
       </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7">
+        <v>0.54292600000000002</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0.98124999999999996</v>
+      </c>
     </row>
-    <row r="60" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N60" s="1">
+    <row r="91" spans="3:8">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7">
         <v>0.37545499999999998</v>
       </c>
-      <c r="O60" s="1">
+      <c r="E91" s="7">
         <v>0.87400999999999995</v>
       </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
     </row>
-    <row r="61" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N61" s="1" t="s">
+    <row r="92" spans="3:8">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
     </row>
-    <row r="62" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N62" s="1">
+    <row r="93" spans="3:8">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7">
         <v>0.148142</v>
       </c>
-      <c r="O62" s="1">
+      <c r="E93" s="7">
         <v>0.33201000000000003</v>
       </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
     </row>
-    <row r="63" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N63" s="1">
+    <row r="94" spans="3:8">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7">
         <v>0.165737</v>
       </c>
-      <c r="O63" s="1">
+      <c r="E94" s="7">
         <v>0.36475400000000002</v>
       </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
     </row>
-    <row r="64" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N64" s="1">
+    <row r="95" spans="3:8">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7">
         <v>0.19029699999999999</v>
       </c>
-      <c r="O64" s="1">
+      <c r="E95" s="7">
         <v>0.40659200000000001</v>
       </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
     </row>
-    <row r="65" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N65" s="1">
+    <row r="96" spans="3:8">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7">
         <v>0.206178</v>
       </c>
-      <c r="O65" s="1">
+      <c r="E96" s="7">
         <v>0.45174300000000001</v>
       </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N66" s="1">
+    <row r="97" spans="3:8">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7">
         <v>0.22791700000000001</v>
       </c>
-      <c r="O66" s="1">
+      <c r="E97" s="7">
         <v>0.496894</v>
       </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
     </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N67" s="1">
+    <row r="98" spans="3:8">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7">
         <v>0.25129099999999999</v>
       </c>
-      <c r="O67" s="1">
+      <c r="E98" s="7">
         <v>0.54199399999999998</v>
       </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
     </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N68" s="1">
+    <row r="99" spans="3:8">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7">
         <v>0.273343</v>
       </c>
-      <c r="O68" s="1">
+      <c r="E99" s="7">
         <v>0.59726100000000004</v>
       </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
     </row>
-    <row r="69" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N69" s="1">
+    <row r="100" spans="3:8">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7">
         <v>0.29266300000000001</v>
       </c>
-      <c r="O69" s="1">
+      <c r="E100" s="7">
         <v>0.64127100000000004</v>
       </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
     </row>
-    <row r="70" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N70" s="1">
+    <row r="101" spans="3:8">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7">
         <v>0.31692900000000002</v>
       </c>
-      <c r="O70" s="1">
+      <c r="E101" s="7">
         <v>0.80818400000000001</v>
       </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
     </row>
-    <row r="71" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N71" s="1">
+    <row r="102" spans="3:8">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7">
         <v>0.37176500000000001</v>
       </c>
-      <c r="O71" s="1">
+      <c r="E102" s="7">
         <v>0.80840400000000001</v>
       </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
     </row>
-    <row r="72" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N72" s="1">
+    <row r="103" spans="3:8">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7">
         <v>0.36516700000000002</v>
       </c>
-      <c r="O72" s="1">
+      <c r="E103" s="7">
         <v>0.82933500000000004</v>
       </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
     </row>
-    <row r="73" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N73" s="1" t="s">
+    <row r="104" spans="3:8">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
     </row>
-    <row r="74" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N74" s="1">
+    <row r="105" spans="3:8">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7">
         <v>0.14640300000000001</v>
       </c>
-      <c r="O74" s="1">
+      <c r="E105" s="7">
         <v>0.30193500000000001</v>
       </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
     </row>
-    <row r="75" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N75" s="1">
+    <row r="106" spans="3:8">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7">
         <v>0.16289799999999999</v>
       </c>
-      <c r="O75" s="1">
+      <c r="E106" s="7">
         <v>0.32373600000000002</v>
       </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
     </row>
-    <row r="76" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N76" s="1">
+    <row r="107" spans="3:8">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7">
         <v>0.18782199999999999</v>
       </c>
-      <c r="O76" s="1">
+      <c r="E107" s="7">
         <v>0.352354</v>
       </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
-    <row r="77" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N77" s="1">
+    <row r="108" spans="3:8">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7">
         <v>0.20228499999999999</v>
       </c>
-      <c r="O77" s="1">
+      <c r="E108" s="7">
         <v>0.390102</v>
       </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
     </row>
-    <row r="78" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N78" s="1">
+    <row r="109" spans="3:8">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7">
         <v>0.22323000000000001</v>
       </c>
-      <c r="O78" s="1">
+      <c r="E109" s="7">
         <v>0.43582500000000002</v>
       </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
     </row>
-    <row r="79" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N79" s="1">
+    <row r="110" spans="3:8">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7">
         <v>0.24609200000000001</v>
       </c>
-      <c r="O79" s="1">
+      <c r="E110" s="7">
         <v>0.47254000000000002</v>
       </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
     </row>
-    <row r="80" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N80" s="1">
+    <row r="111" spans="3:8">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7">
         <v>0.26971800000000001</v>
       </c>
-      <c r="O80" s="1">
+      <c r="E111" s="7">
         <v>0.51329899999999995</v>
       </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
     </row>
-    <row r="81" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N81" s="1">
+    <row r="112" spans="3:8">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7">
         <v>0.29268499999999997</v>
       </c>
-      <c r="O81" s="1">
+      <c r="E112" s="7">
         <v>0.56237899999999996</v>
       </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
     </row>
-    <row r="82" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N82" s="1">
+    <row r="113" spans="3:8">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7">
         <v>0.31467299999999998</v>
       </c>
-      <c r="O82" s="1">
+      <c r="E113" s="7">
         <v>0.64422699999999999</v>
       </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
     </row>
-    <row r="83" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N83" s="1">
+    <row r="114" spans="3:8">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7">
         <v>0.33882800000000002</v>
       </c>
-      <c r="O83" s="1">
+      <c r="E114" s="7">
         <v>0.66002300000000003</v>
       </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
     </row>
-    <row r="84" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N84" s="1">
+    <row r="115" spans="3:8">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7">
         <v>0.369944</v>
       </c>
-      <c r="O84" s="1">
+      <c r="E115" s="7">
         <v>0.70802399999999999</v>
       </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="3:8">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="3:8">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O12:Q15"/>
+  <mergeCells count="12">
+    <mergeCell ref="I25:K28"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9537,111 +17750,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7623078-2194-B948-8E88-92A65452FD66}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>2.8653999999999999E-2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>8.3752999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>2.2502999999999999E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>2.4433E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>2.1031999999999999E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.2744999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>2.0795000000000001E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>7.2610000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>2.1177999999999999E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>2.0823000000000001E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>4.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>2.1003000000000001E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>3.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>2.0759E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>2.5360000000000001E-3</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -9652,14 +17865,14 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>2.0693E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="F10" s="6"/>
@@ -9668,14 +17881,14 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>2.1222000000000001E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>1.8829999999999999E-3</v>
       </c>
       <c r="F11" s="6"/>
@@ -9684,14 +17897,14 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>2.1287E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>1.6559999999999999E-3</v>
       </c>
       <c r="F12" s="6"/>
@@ -9700,14 +17913,14 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>2.1212999999999999E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>1.5499999999999999E-3</v>
       </c>
       <c r="F13" s="6"/>
@@ -9716,14 +17929,14 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>2.0840999999999998E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>1.3810000000000001E-3</v>
       </c>
       <c r="F14" s="6"/>
@@ -9732,91 +17945,91 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>2.0715000000000001E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>2.0649000000000001E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>1.0610000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>2.1416000000000001E-2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>9.8900000000000008E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>2.0712000000000001E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>2.1357999999999999E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>2.0688999999999999E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>8.2600000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>2.1099E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>7.9000000000000001E-4</v>
       </c>
     </row>
@@ -9825,5 +18038,6 @@
     <mergeCell ref="F9:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeelongsiah/Desktop/School/NTU/SC2001/Dijkstra's Alg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A08DA-4963-4848-AD69-35143FEA9EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA115A06-AC47-D047-8E80-31445D376063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{8A83C292-6E76-F249-AC67-58BE18C7F3DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8A83C292-6E76-F249-AC67-58BE18C7F3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +138,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,11 +147,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1908,6 +1908,655 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>60% connected graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>results!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.4140000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1789999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1169E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7786E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7015000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7541999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9732999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3573000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9016000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8225000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.121863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15376699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16777600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19556299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25959900000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25430399999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29503099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36471700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-355C-644F-B5F7-5B9A0A0D0DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theoretical list</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$W$3:$W$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.5633821452955098E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1386783436641385E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.492576846813899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6986117259024021E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.466863875283068E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3245501898696924E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1493229187816539E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2677490011103587E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7273201442088658E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5761808355118523E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8630551503233859E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11637188368631836</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14948299307789317</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18846540662386987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23382465486320933</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28606998490436619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34571411186055784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41327300148988788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48926567850474051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57421405625236421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-355C-644F-B5F7-5B9A0A0D0DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="192770208"/>
+        <c:axId val="192766768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="192770208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> V</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192766768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192766768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192770208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3192,9 +3841,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -3203,15 +3851,17 @@
             <c:v>matrix</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>results!$A$3:$A$22</c:f>
@@ -3350,6 +4000,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E50-D045-BD81-3F21B4EDAE95}"/>
@@ -3357,162 +4008,96 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>list</c:v>
+            <c:v>theoretical matrix</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
             <c:numRef>
-              <c:f>results!$A$3:$A$22</c:f>
+              <c:f>results!$V$3:$V$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>3.48E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>1.392E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>3.1320000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>5.568E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>8.6999999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1200</c:v>
+                  <c:v>1.2528000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1400</c:v>
+                  <c:v>1.7052000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1600</c:v>
+                  <c:v>2.2272E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1800</c:v>
+                  <c:v>2.8188000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>3.4799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2200</c:v>
+                  <c:v>4.2108E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2400</c:v>
+                  <c:v>5.0112000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2600</c:v>
+                  <c:v>5.8812000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2800</c:v>
+                  <c:v>6.8208000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3000</c:v>
+                  <c:v>7.8299999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3200</c:v>
+                  <c:v>8.9088000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3400</c:v>
+                  <c:v>0.10057200000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3600</c:v>
+                  <c:v>0.112752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3800</c:v>
+                  <c:v>0.12562799999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>results!$G$3:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>4.4140000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6830000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1789999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1169E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7786E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7015000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7541999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9732999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3573000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9016000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8225000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.121863</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15376699999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16777600000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19556299999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25959900000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25430399999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29503099999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36471700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36584</c:v>
+                  <c:v>0.13919999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E50-D045-BD81-3F21B4EDAE95}"/>
+              <c16:uniqueId val="{00000000-A3DC-AF47-9400-80DD168FA73C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3524,10 +4109,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:smooth val="0"/>
         <c:axId val="192770208"/>
         <c:axId val="192766768"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="192770208"/>
         <c:scaling>
@@ -3535,6 +4120,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> V</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3600,6 +4245,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8613,6 +9313,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10005,6 +10745,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14700,16 +15956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2715099</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>159723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2641601</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138543</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1707931</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15038,6 +16294,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2484175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1477008</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174983</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17D384E-DFE5-BD47-9FBE-433C592ADF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15379,13 +16673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C20B9EC-4AA2-AE46-8826-2B4D3F091796}">
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="50" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="47"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="47" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -15397,13 +16691,13 @@
     <col min="8" max="8" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="43.83203125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="43.83203125" style="7" customWidth="1"/>
+    <col min="12" max="18" width="43.83203125" style="3" customWidth="1"/>
     <col min="19" max="19" width="43.83203125" customWidth="1"/>
     <col min="20" max="32" width="43.83203125" style="1" customWidth="1"/>
     <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4">
         <v>1</v>
       </c>
@@ -15447,7 +16741,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15508,8 +16802,14 @@
       <c r="U2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="X2" s="1">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4.9999999999999997E-12</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -15573,8 +16873,16 @@
       <c r="U3" s="1">
         <v>1.2110000000000001E-3</v>
       </c>
+      <c r="V3" s="1">
+        <f>A3*A3*$X$2</f>
+        <v>3.48E-4</v>
+      </c>
+      <c r="W3" s="1">
+        <f>(A3*((A3*(A3-1))/2)*0.3)*LOG(A3,2)*$Y$2</f>
+        <v>4.5633821452955098E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <f>A3+200</f>
         <v>400</v>
@@ -15639,10 +16947,18 @@
       <c r="U4" s="1">
         <v>3.77E-4</v>
       </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V22" si="0">A4*A4*$X$2</f>
+        <v>1.392E-3</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4:W22" si="1">(A4*((A4*(A4-1))/2)*0.3)*LOG(A4,2)*$Y$2</f>
+        <v>4.1386783436641385E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A39" si="0">A4+200</f>
+        <f t="shared" ref="A5:A22" si="2">A4+200</f>
         <v>600</v>
       </c>
       <c r="B5" s="1">
@@ -15705,10 +17021,18 @@
       <c r="U5" s="1">
         <v>9.0499999999999999E-4</v>
       </c>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1320000000000002E-3</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.492576846813899E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="B6" s="1">
@@ -15771,10 +17095,18 @@
       <c r="U6" s="1">
         <v>1.8220000000000001E-3</v>
       </c>
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.568E-3</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6986117259024021E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="B7" s="1">
@@ -15837,10 +17169,18 @@
       <c r="U7" s="1">
         <v>2.9759999999999999E-3</v>
       </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.466863875283068E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="B8" s="1">
@@ -15903,10 +17243,18 @@
       <c r="U8" s="1">
         <v>4.7549999999999997E-3</v>
       </c>
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2528000000000001E-2</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3245501898696924E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="B9" s="1">
@@ -15969,10 +17317,18 @@
       <c r="U9" s="1">
         <v>6.8669999999999998E-3</v>
       </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7052000000000001E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1493229187816539E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="B10" s="1">
@@ -16035,10 +17391,18 @@
       <c r="U10" s="1">
         <v>9.4839999999999994E-3</v>
       </c>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2272E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2677490011103587E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="B11" s="1">
@@ -16101,10 +17465,18 @@
       <c r="U11" s="1">
         <v>1.2292000000000001E-2</v>
       </c>
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8188000000000001E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7273201442088658E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="B12" s="1">
@@ -16167,10 +17539,18 @@
       <c r="U12" s="1">
         <v>1.5559999999999999E-2</v>
       </c>
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5761808355118523E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
       <c r="B13" s="1">
@@ -16233,10 +17613,18 @@
       <c r="U13" s="1">
         <v>1.9904999999999999E-2</v>
       </c>
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2108E-2</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8630551503233859E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="B14" s="1">
@@ -16299,10 +17687,18 @@
       <c r="U14" s="1">
         <v>2.4892000000000001E-2</v>
       </c>
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0112000000000004E-2</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11637188368631836</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2600</v>
       </c>
       <c r="B15" s="1">
@@ -16365,10 +17761,18 @@
       <c r="U15" s="1">
         <v>3.1033999999999999E-2</v>
       </c>
+      <c r="V15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8812000000000003E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14948299307789317</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="B16" s="1">
@@ -16431,10 +17835,18 @@
       <c r="U16" s="1">
         <v>3.6332999999999997E-2</v>
       </c>
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8208000000000005E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18846540662386987</v>
+      </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="B17" s="1">
@@ -16497,10 +17909,18 @@
       <c r="U17" s="1">
         <v>4.2215000000000003E-2</v>
       </c>
+      <c r="V17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23382465486320933</v>
+      </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3200</v>
       </c>
       <c r="B18" s="1">
@@ -16563,10 +17983,18 @@
       <c r="U18" s="1">
         <v>4.8552999999999999E-2</v>
       </c>
+      <c r="V18" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9088000000000001E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28606998490436619</v>
+      </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3400</v>
       </c>
       <c r="B19" s="1">
@@ -16629,10 +18057,18 @@
       <c r="U19" s="1">
         <v>5.6797E-2</v>
       </c>
+      <c r="V19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10057200000000001</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34571411186055784</v>
+      </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="B20" s="1">
@@ -16695,10 +18131,18 @@
       <c r="U20" s="1">
         <v>6.3672999999999993E-2</v>
       </c>
+      <c r="V20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.112752</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41327300148988788</v>
+      </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3800</v>
       </c>
       <c r="B21" s="1">
@@ -16761,10 +18205,18 @@
       <c r="U21" s="1">
         <v>7.1920999999999999E-2</v>
       </c>
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12562799999999999</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48926567850474051</v>
+      </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="B22" s="1">
@@ -16827,904 +18279,912 @@
       <c r="U22" s="1">
         <v>8.1115000000000007E-2</v>
       </c>
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57421405625236421</v>
+      </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="I25" s="3" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:21">
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:21">
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:21">
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
         <v>0.14348</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="3">
         <v>0.36096299999999998</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
         <v>0.35458400000000001</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="3">
         <v>0.90989399999999998</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
         <v>0.15925</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="3">
         <v>0.41607</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
         <v>0.392876</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="3">
         <v>0.98537200000000003</v>
       </c>
     </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
         <v>0.17818999999999999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="3">
         <v>0.45431300000000002</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
         <v>0.42042600000000002</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="3">
         <v>1.06596</v>
       </c>
     </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
         <v>0.19994500000000001</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="3">
         <v>0.50465700000000002</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
         <v>0.45450299999999999</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="3">
         <v>1.139864</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
         <v>0.220527</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="3">
         <v>0.55822300000000002</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
         <v>0.48921999999999999</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="3">
         <v>1.2165900000000001</v>
       </c>
     </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
         <v>0.244924</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="3">
         <v>0.61022299999999996</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
         <v>0.51994700000000005</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="3">
         <v>1.310902</v>
       </c>
     </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3">
         <v>0.26701000000000003</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="3">
         <v>0.66588499999999995</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3">
         <v>0.29008499999999998</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="3">
         <v>0.72476200000000002</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
         <v>0.36982100000000001</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="3">
         <v>0.95696499999999995</v>
       </c>
     </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="7"/>
-      <c r="D65" s="7">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3">
         <v>0.317388</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="3">
         <v>0.788995</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
         <v>0.397484</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="3">
         <v>1.000964</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3">
         <v>0.344225</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="3">
         <v>0.85274300000000003</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3">
         <v>0.42614800000000003</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="3">
         <v>1.0664960000000001</v>
       </c>
     </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
         <v>0.37059300000000001</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="3">
         <v>0.91947299999999998</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
         <v>0.46109600000000001</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="3">
         <v>1.1387640000000001</v>
       </c>
     </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
         <v>0.49199799999999999</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="3">
         <v>1.214129</v>
       </c>
     </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
         <v>0.14651500000000001</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="3">
         <v>0.38476199999999999</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
         <v>0.52045300000000005</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="3">
         <v>1.3863760000000001</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="7"/>
-      <c r="D70" s="7">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3">
         <v>0.16389699999999999</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="3">
         <v>0.423433</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7" t="s">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="7"/>
-      <c r="D71" s="7">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3">
         <v>0.17909</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="3">
         <v>0.47237000000000001</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
         <v>0.36776300000000001</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="3">
         <v>0.912547</v>
       </c>
     </row>
-    <row r="72" spans="3:8">
-      <c r="C72" s="7"/>
-      <c r="D72" s="7">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3">
         <v>0.19886499999999999</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="3">
         <v>0.52192799999999995</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3">
         <v>0.40051900000000001</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="3">
         <v>0.99871100000000002</v>
       </c>
     </row>
-    <row r="73" spans="3:8">
-      <c r="C73" s="7"/>
-      <c r="D73" s="7">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3">
         <v>0.21914900000000001</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="3">
         <v>0.57533800000000002</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3">
         <v>0.43451899999999999</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="3">
         <v>1.0066250000000001</v>
       </c>
     </row>
-    <row r="74" spans="3:8">
-      <c r="C74" s="7"/>
-      <c r="D74" s="7">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
         <v>0.242121</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="3">
         <v>0.63816899999999999</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3">
         <v>0.46414</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="3">
         <v>1.0740670000000001</v>
       </c>
     </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="7"/>
-      <c r="D75" s="7">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3">
         <v>0.326405</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="3">
         <v>0.68771700000000002</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3">
         <v>0.497643</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="3">
         <v>1.2994939999999999</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
-      <c r="C76" s="7"/>
-      <c r="D76" s="7">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3">
         <v>0.293018</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="3">
         <v>0.73973699999999998</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7">
+      <c r="F76" s="3"/>
+      <c r="G76" s="3">
         <v>0.54237000000000002</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="3">
         <v>1.224828</v>
       </c>
     </row>
-    <row r="77" spans="3:8">
-      <c r="C77" s="7"/>
-      <c r="D77" s="7">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3">
         <v>0.320052</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="3">
         <v>0.80922400000000005</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7" t="s">
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H77" s="7"/>
+      <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="3:8">
-      <c r="C78" s="7"/>
-      <c r="D78" s="7">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3">
         <v>0.34369499999999997</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="3">
         <v>0.86548499999999995</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3">
         <v>0.38773400000000002</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="3">
         <v>0.81385399999999997</v>
       </c>
     </row>
-    <row r="79" spans="3:8">
-      <c r="C79" s="7"/>
-      <c r="D79" s="7">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3">
         <v>0.37206800000000001</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="3">
         <v>0.93661099999999997</v>
       </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
         <v>0.40659299999999998</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="3">
         <v>0.86788799999999999</v>
       </c>
     </row>
-    <row r="80" spans="3:8">
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3">
         <v>0.44289299999999998</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="3">
         <v>0.92518500000000004</v>
       </c>
     </row>
-    <row r="81" spans="3:8">
-      <c r="C81" s="7"/>
-      <c r="D81" s="7">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3">
         <v>0.14693600000000001</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="3">
         <v>0.364479</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7">
+      <c r="F81" s="3"/>
+      <c r="G81" s="3">
         <v>0.47003499999999998</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="3">
         <v>0.99759900000000001</v>
       </c>
     </row>
-    <row r="82" spans="3:8">
-      <c r="C82" s="7"/>
-      <c r="D82" s="7">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
         <v>0.16577800000000001</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="3">
         <v>0.39681</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7">
+      <c r="F82" s="3"/>
+      <c r="G82" s="3">
         <v>0.50515900000000002</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="3">
         <v>1.0538989999999999</v>
       </c>
     </row>
-    <row r="83" spans="3:8">
-      <c r="C83" s="7"/>
-      <c r="D83" s="7">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
         <v>0.18443100000000001</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="3">
         <v>0.44147799999999998</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7">
+      <c r="F83" s="3"/>
+      <c r="G83" s="3">
         <v>0.53899799999999998</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="3">
         <v>1.1230150000000001</v>
       </c>
     </row>
-    <row r="84" spans="3:8">
-      <c r="C84" s="7"/>
-      <c r="D84" s="7">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
         <v>0.20438799999999999</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="3">
         <v>0.48889700000000003</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7" t="s">
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H84" s="7"/>
+      <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="3:8">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3">
         <v>0.22651399999999999</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="3">
         <v>0.53690000000000004</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7">
+      <c r="F85" s="3"/>
+      <c r="G85" s="3">
         <v>0.38480999999999999</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="3">
         <v>0.70749700000000004</v>
       </c>
     </row>
-    <row r="86" spans="3:8">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3">
         <v>0.24813399999999999</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="3">
         <v>0.586426</v>
       </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7">
+      <c r="F86" s="3"/>
+      <c r="G86" s="3">
         <v>0.41434399999999999</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="3">
         <v>0.755463</v>
       </c>
     </row>
-    <row r="87" spans="3:8">
-      <c r="C87" s="7"/>
-      <c r="D87" s="7">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
         <v>0.27271800000000002</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="3">
         <v>0.64016200000000001</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7">
+      <c r="F87" s="3"/>
+      <c r="G87" s="3">
         <v>0.445884</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="3">
         <v>0.80748500000000001</v>
       </c>
     </row>
-    <row r="88" spans="3:8">
-      <c r="C88" s="7"/>
-      <c r="D88" s="7">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3">
         <v>0.296153</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="3">
         <v>0.69698700000000002</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7">
+      <c r="F88" s="3"/>
+      <c r="G88" s="3">
         <v>0.47498099999999999</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="3">
         <v>0.86903799999999998</v>
       </c>
     </row>
-    <row r="89" spans="3:8">
-      <c r="C89" s="7"/>
-      <c r="D89" s="7">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3">
         <v>0.32544899999999999</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="3">
         <v>0.75214999999999999</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7">
+      <c r="F89" s="3"/>
+      <c r="G89" s="3">
         <v>0.48132200000000003</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="3">
         <v>0.92292600000000002</v>
       </c>
     </row>
-    <row r="90" spans="3:8">
-      <c r="C90" s="7"/>
-      <c r="D90" s="7">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3">
         <v>0.34912900000000002</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="3">
         <v>0.81225400000000003</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7">
+      <c r="F90" s="3"/>
+      <c r="G90" s="3">
         <v>0.54292600000000002</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="3">
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="91" spans="3:8">
-      <c r="C91" s="7"/>
-      <c r="D91" s="7">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3">
         <v>0.37545499999999998</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="3">
         <v>0.87400999999999995</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="3:8">
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="3:8">
-      <c r="C93" s="7"/>
-      <c r="D93" s="7">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3">
         <v>0.148142</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="3">
         <v>0.33201000000000003</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="3:8">
-      <c r="C94" s="7"/>
-      <c r="D94" s="7">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3">
         <v>0.165737</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="3">
         <v>0.36475400000000002</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="3:8">
-      <c r="C95" s="7"/>
-      <c r="D95" s="7">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3">
         <v>0.19029699999999999</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="3">
         <v>0.40659200000000001</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="7"/>
-      <c r="D96" s="7">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3">
         <v>0.206178</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="3">
         <v>0.45174300000000001</v>
       </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="7"/>
-      <c r="D97" s="7">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3">
         <v>0.22791700000000001</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="3">
         <v>0.496894</v>
       </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="7"/>
-      <c r="D98" s="7">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3">
         <v>0.25129099999999999</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="3">
         <v>0.54199399999999998</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="3:8">
-      <c r="C99" s="7"/>
-      <c r="D99" s="7">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3">
         <v>0.273343</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="3">
         <v>0.59726100000000004</v>
       </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="3:8">
-      <c r="C100" s="7"/>
-      <c r="D100" s="7">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3">
         <v>0.29266300000000001</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="3">
         <v>0.64127100000000004</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="3:8">
-      <c r="C101" s="7"/>
-      <c r="D101" s="7">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3">
         <v>0.31692900000000002</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="3">
         <v>0.80818400000000001</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="3:8">
-      <c r="C102" s="7"/>
-      <c r="D102" s="7">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3">
         <v>0.37176500000000001</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="3">
         <v>0.80840400000000001</v>
       </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="3:8">
-      <c r="C103" s="7"/>
-      <c r="D103" s="7">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3">
         <v>0.36516700000000002</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="3">
         <v>0.82933500000000004</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="3:8">
-      <c r="C104" s="7"/>
-      <c r="D104" s="7" t="s">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="3:8">
-      <c r="C105" s="7"/>
-      <c r="D105" s="7">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3">
         <v>0.14640300000000001</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="3">
         <v>0.30193500000000001</v>
       </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="3:8">
-      <c r="C106" s="7"/>
-      <c r="D106" s="7">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3">
         <v>0.16289799999999999</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="3">
         <v>0.32373600000000002</v>
       </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="3:8">
-      <c r="C107" s="7"/>
-      <c r="D107" s="7">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3">
         <v>0.18782199999999999</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="3">
         <v>0.352354</v>
       </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="3:8">
-      <c r="C108" s="7"/>
-      <c r="D108" s="7">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3">
         <v>0.20228499999999999</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="3">
         <v>0.390102</v>
       </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="3:8">
-      <c r="C109" s="7"/>
-      <c r="D109" s="7">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3">
         <v>0.22323000000000001</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="3">
         <v>0.43582500000000002</v>
       </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="3:8">
-      <c r="C110" s="7"/>
-      <c r="D110" s="7">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3">
         <v>0.24609200000000001</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="3">
         <v>0.47254000000000002</v>
       </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="3:8">
-      <c r="C111" s="7"/>
-      <c r="D111" s="7">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3">
         <v>0.26971800000000001</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="3">
         <v>0.51329899999999995</v>
       </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="3:8">
-      <c r="C112" s="7"/>
-      <c r="D112" s="7">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3">
         <v>0.29268499999999997</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="3">
         <v>0.56237899999999996</v>
       </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="3:8">
-      <c r="C113" s="7"/>
-      <c r="D113" s="7">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3">
         <v>0.31467299999999998</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="3">
         <v>0.64422699999999999</v>
       </c>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="3:8">
-      <c r="C114" s="7"/>
-      <c r="D114" s="7">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3">
         <v>0.33882800000000002</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="3">
         <v>0.66002300000000003</v>
       </c>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="3:8">
-      <c r="C115" s="7"/>
-      <c r="D115" s="7">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3">
         <v>0.369944</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="3">
         <v>0.70802399999999999</v>
       </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="3:8">
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="3:8">
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -17754,12 +19214,12 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -17770,7 +19230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -17781,7 +19241,7 @@
         <v>8.3752999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -17792,7 +19252,7 @@
         <v>2.4433E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -17803,7 +19263,7 @@
         <v>1.2744999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -17814,7 +19274,7 @@
         <v>7.2610000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -17825,7 +19285,7 @@
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -17836,7 +19296,7 @@
         <v>4.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -17847,7 +19307,7 @@
         <v>3.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -17857,15 +19317,15 @@
       <c r="C9" s="2">
         <v>2.5360000000000001E-3</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -17875,13 +19335,13 @@
       <c r="C10" s="2">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -17891,13 +19351,13 @@
       <c r="C11" s="2">
         <v>1.8829999999999999E-3</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -17907,13 +19367,13 @@
       <c r="C12" s="2">
         <v>1.6559999999999999E-3</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -17923,13 +19383,13 @@
       <c r="C13" s="2">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -17939,13 +19399,13 @@
       <c r="C14" s="2">
         <v>1.3810000000000001E-3</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -17956,7 +19416,7 @@
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -17967,7 +19427,7 @@
         <v>1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -17978,7 +19438,7 @@
         <v>1.0610000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -17989,7 +19449,7 @@
         <v>9.8900000000000008E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -18000,7 +19460,7 @@
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -18011,7 +19471,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -18022,7 +19482,7 @@
         <v>8.2600000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
